--- a/capiq_data/in_process_data/IQ182505.xlsx
+++ b/capiq_data/in_process_data/IQ182505.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E9F86A-41CD-45B1-84FB-F8E08EE5C517}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569A9DCE-0734-4071-9ACE-8D43380AECAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"f637f6f5-9e21-48d7-a457-878c1e98f3d1"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"3a9bf401-a45d-4aca-88e6-19048a5b4ee3"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>58.698</v>
+        <v>46.554000000000002</v>
       </c>
       <c r="D2">
-        <v>814.13499999999999</v>
+        <v>629.86099999999999</v>
       </c>
       <c r="E2">
-        <v>6.9480000000000004</v>
+        <v>6.67</v>
       </c>
       <c r="F2">
-        <v>153.74799999999999</v>
+        <v>127.051</v>
       </c>
       <c r="G2">
-        <v>1832.357</v>
+        <v>600.05799999999999</v>
       </c>
       <c r="H2">
-        <v>2260.0610000000001</v>
+        <v>841.26</v>
       </c>
       <c r="I2">
-        <v>115.578</v>
+        <v>108.06399999999999</v>
       </c>
       <c r="J2">
-        <v>7.5919999999999996</v>
+        <v>120.167</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>447.93900000000002</v>
+        <v>282.64800000000002</v>
       </c>
       <c r="O2">
-        <v>519.68700000000001</v>
+        <v>593.78</v>
       </c>
       <c r="P2">
-        <v>99.680999999999997</v>
+        <v>173.655</v>
       </c>
       <c r="Q2">
-        <v>137.90700000000001</v>
+        <v>19.309999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>2822</v>
+        <v>2752</v>
       </c>
       <c r="T2">
-        <v>1740.374</v>
+        <v>247.48</v>
       </c>
       <c r="U2">
-        <v>1190.731</v>
+        <v>130.07900000000001</v>
       </c>
       <c r="V2">
-        <v>140.98699999999999</v>
+        <v>58.411000000000001</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-26.786999999999999</v>
+        <v>-42.158000000000001</v>
       </c>
       <c r="Y2">
-        <v>1.7509999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>26.193000000000001</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="AA2">
-        <v>58.698</v>
+        <v>46.554000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>15.173999999999999</v>
+        <v>47.92</v>
       </c>
       <c r="D3">
-        <v>517.077</v>
+        <v>531.55499999999995</v>
       </c>
       <c r="E3">
-        <v>7.3780000000000001</v>
+        <v>10.231</v>
       </c>
       <c r="F3">
-        <v>92.245000000000005</v>
+        <v>118.967</v>
       </c>
       <c r="G3">
-        <v>1826.422</v>
+        <v>611.73400000000004</v>
       </c>
       <c r="H3">
-        <v>2275.7280000000001</v>
+        <v>874.09199999999998</v>
       </c>
       <c r="I3">
-        <v>115.977</v>
+        <v>112.209</v>
       </c>
       <c r="J3">
-        <v>7.5869999999999997</v>
+        <v>119.988</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-16.297000000000001</v>
+        <v>-0.186</v>
       </c>
       <c r="N3">
-        <v>384.33699999999999</v>
+        <v>285.11500000000001</v>
       </c>
       <c r="O3">
-        <v>457.52699999999999</v>
+        <v>584.14099999999996</v>
       </c>
       <c r="P3">
-        <v>84.647999999999996</v>
+        <v>226.19200000000001</v>
       </c>
       <c r="Q3">
-        <v>26.545000000000002</v>
+        <v>-28.43</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1818.201</v>
+        <v>289.95100000000002</v>
       </c>
       <c r="U3">
-        <v>1217.67</v>
+        <v>97.045000000000002</v>
       </c>
       <c r="V3">
-        <v>-9.0329999999999995</v>
+        <v>2.464</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>32.04</v>
+        <v>-34.920999999999999</v>
       </c>
       <c r="Y3">
-        <v>1.714</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>4.38</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>15.173999999999999</v>
+        <v>47.92</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>38.445</v>
+        <v>59.362000000000002</v>
       </c>
       <c r="D4">
-        <v>698.32799999999997</v>
+        <v>664.03599999999994</v>
       </c>
       <c r="E4">
-        <v>7.8710000000000004</v>
+        <v>13.314</v>
       </c>
       <c r="F4">
-        <v>131.68600000000001</v>
+        <v>150.62</v>
       </c>
       <c r="G4">
-        <v>1655.3330000000001</v>
+        <v>637.41999999999996</v>
       </c>
       <c r="H4">
-        <v>2175.6750000000002</v>
+        <v>913.38900000000001</v>
       </c>
       <c r="I4">
-        <v>148.65799999999999</v>
+        <v>124.52800000000001</v>
       </c>
       <c r="J4">
-        <v>6.5350000000000001</v>
+        <v>119.98099999999999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>447.81299999999999</v>
+        <v>293.43599999999998</v>
       </c>
       <c r="O4">
-        <v>524.87900000000002</v>
+        <v>609.42600000000004</v>
       </c>
       <c r="P4">
-        <v>97.88</v>
+        <v>230.429</v>
       </c>
       <c r="Q4">
-        <v>-289.899</v>
+        <v>-19.981000000000002</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1650.796</v>
+        <v>303.96300000000002</v>
       </c>
       <c r="U4">
-        <v>927.37</v>
+        <v>78.591999999999999</v>
       </c>
       <c r="V4">
-        <v>-16.190000000000001</v>
+        <v>26.423999999999999</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-208.74299999999999</v>
+        <v>-46.176000000000002</v>
       </c>
       <c r="Y4">
-        <v>1.696</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>-58.637</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>38.445</v>
+        <v>59.362000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>43.408999999999999</v>
+        <v>62.491999999999997</v>
       </c>
       <c r="D5">
-        <v>709.90700000000004</v>
+        <v>694.20899999999995</v>
       </c>
       <c r="E5">
-        <v>7.2809999999999997</v>
+        <v>12.159000000000001</v>
       </c>
       <c r="F5">
-        <v>129.697</v>
+        <v>157.126</v>
       </c>
       <c r="G5">
-        <v>1279.171</v>
+        <v>696.37300000000005</v>
       </c>
       <c r="H5">
-        <v>1799.616</v>
+        <v>985.59199999999998</v>
       </c>
       <c r="I5">
-        <v>146.83699999999999</v>
+        <v>129.70599999999999</v>
       </c>
       <c r="J5">
-        <v>5.6849999999999996</v>
+        <v>120.35</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>378.55399999999997</v>
+        <v>350.06299999999999</v>
       </c>
       <c r="O5">
-        <v>453.59699999999998</v>
+        <v>687.56</v>
       </c>
       <c r="P5">
-        <v>7.351</v>
+        <v>252.70099999999999</v>
       </c>
       <c r="Q5">
-        <v>-433.274</v>
+        <v>24.643999999999998</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1346.019</v>
+        <v>298.03199999999998</v>
       </c>
       <c r="U5">
-        <v>492.33100000000002</v>
+        <v>105.163</v>
       </c>
       <c r="V5">
-        <v>20.641999999999999</v>
+        <v>68.254000000000005</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-454.976</v>
+        <v>-47.521999999999998</v>
       </c>
       <c r="Y5">
-        <v>1.6659999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>2.1619999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>43.408999999999999</v>
+        <v>62.491999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>32.392000000000003</v>
+        <v>67.02</v>
       </c>
       <c r="D6">
-        <v>743.84</v>
+        <v>733.07299999999998</v>
       </c>
       <c r="E6">
-        <v>6.7889999999999997</v>
+        <v>5.7450000000000001</v>
       </c>
       <c r="F6">
-        <v>130.47200000000001</v>
+        <v>165.13200000000001</v>
       </c>
       <c r="G6">
-        <v>1293.115</v>
+        <v>688.79</v>
       </c>
       <c r="H6">
-        <v>1779.4849999999999</v>
+        <v>995.04700000000003</v>
       </c>
       <c r="I6">
-        <v>125.649</v>
+        <v>127.658</v>
       </c>
       <c r="J6">
-        <v>4.9829999999999997</v>
+        <v>115</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>323.00400000000002</v>
+        <v>371.315</v>
       </c>
       <c r="O6">
-        <v>404.68599999999998</v>
+        <v>645.92899999999997</v>
       </c>
       <c r="P6">
-        <v>6.5960000000000001</v>
+        <v>238.97</v>
       </c>
       <c r="Q6">
-        <v>-16.327999999999999</v>
+        <v>24.67</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>2765</v>
+        <v>3334</v>
       </c>
       <c r="T6">
-        <v>1374.799</v>
+        <v>349.11799999999999</v>
       </c>
       <c r="U6">
-        <v>475.56599999999997</v>
+        <v>134.18100000000001</v>
       </c>
       <c r="V6">
-        <v>6.0439999999999996</v>
+        <v>58.103000000000002</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-20.873999999999999</v>
+        <v>-41.598999999999997</v>
       </c>
       <c r="Y6">
-        <v>1.613</v>
+        <v>5.2590000000000003</v>
       </c>
       <c r="Z6">
-        <v>1.1479999999999999</v>
+        <v>4.6319999999999997</v>
       </c>
       <c r="AA6">
-        <v>32.392000000000003</v>
+        <v>67.02</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>20.123000000000001</v>
+        <v>76.712999999999994</v>
       </c>
       <c r="D7">
-        <v>603.06500000000005</v>
+        <v>692.12699999999995</v>
       </c>
       <c r="E7">
-        <v>6.0279999999999996</v>
+        <v>6.3869999999999996</v>
       </c>
       <c r="F7">
-        <v>103.25</v>
+        <v>173.61600000000001</v>
       </c>
       <c r="G7">
-        <v>1330.797</v>
+        <v>649.31299999999999</v>
       </c>
       <c r="H7">
-        <v>1850.912</v>
+        <v>976.59699999999998</v>
       </c>
       <c r="I7">
-        <v>137.066</v>
+        <v>129.04900000000001</v>
       </c>
       <c r="J7">
-        <v>2.3479999999999999</v>
+        <v>120.181</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-3.2669999999999999</v>
+        <v>-2.5819999999999999</v>
       </c>
       <c r="N7">
-        <v>349.82100000000003</v>
+        <v>273.71300000000002</v>
       </c>
       <c r="O7">
-        <v>432.67099999999999</v>
+        <v>663.80700000000002</v>
       </c>
       <c r="P7">
-        <v>2.3479999999999999</v>
+        <v>236.38800000000001</v>
       </c>
       <c r="Q7">
-        <v>94.364999999999995</v>
+        <v>-61.097000000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1418.241</v>
+        <v>312.79000000000002</v>
       </c>
       <c r="U7">
-        <v>567.92200000000003</v>
+        <v>73.620999999999995</v>
       </c>
       <c r="V7">
-        <v>90.837999999999994</v>
+        <v>78.873000000000005</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>3.8180000000000001</v>
+        <v>-140.15100000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>2.4489999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>20.123000000000001</v>
+        <v>76.712999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>46.838000000000001</v>
+        <v>83.83</v>
       </c>
       <c r="D8">
-        <v>771.13599999999997</v>
+        <v>788.28499999999997</v>
       </c>
       <c r="E8">
-        <v>9.6120000000000001</v>
+        <v>8.0589999999999993</v>
       </c>
       <c r="F8">
-        <v>137.821</v>
+        <v>195.77500000000001</v>
       </c>
       <c r="G8">
-        <v>1454.614</v>
+        <v>713.97299999999996</v>
       </c>
       <c r="H8">
-        <v>1990.96</v>
+        <v>1078.183</v>
       </c>
       <c r="I8">
-        <v>158.358</v>
+        <v>150.136</v>
       </c>
       <c r="J8">
-        <v>1.05</v>
+        <v>120.09399999999999</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>376.08800000000002</v>
+        <v>256.60300000000001</v>
       </c>
       <c r="O8">
-        <v>469.13600000000002</v>
+        <v>690.49800000000005</v>
       </c>
       <c r="P8">
-        <v>1.05</v>
+        <v>244.80099999999999</v>
       </c>
       <c r="Q8">
-        <v>18.103999999999999</v>
+        <v>19.041</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1521.8240000000001</v>
+        <v>387.685</v>
       </c>
       <c r="U8">
-        <v>587.64599999999996</v>
+        <v>93.531999999999996</v>
       </c>
       <c r="V8">
-        <v>-18.446999999999999</v>
+        <v>53.588000000000001</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>38.575000000000003</v>
+        <v>-35.671999999999997</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.97199999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>46.838000000000001</v>
+        <v>83.83</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>53</v>
+        <v>91.98</v>
       </c>
       <c r="D9">
-        <v>872.26099999999997</v>
+        <v>867.05499999999995</v>
       </c>
       <c r="E9">
-        <v>9.9730000000000008</v>
+        <v>13.068</v>
       </c>
       <c r="F9">
-        <v>162.03700000000001</v>
+        <v>215.22300000000001</v>
       </c>
       <c r="G9">
-        <v>1918.0719999999999</v>
+        <v>706.07100000000003</v>
       </c>
       <c r="H9">
-        <v>2480.7260000000001</v>
+        <v>1087.4590000000001</v>
       </c>
       <c r="I9">
-        <v>156.614</v>
+        <v>145.19900000000001</v>
       </c>
       <c r="J9">
-        <v>599.83199999999999</v>
+        <v>120.001</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>399.19</v>
+        <v>248.48400000000001</v>
       </c>
       <c r="O9">
-        <v>1101.4179999999999</v>
+        <v>730.721</v>
       </c>
       <c r="P9">
-        <v>599.83199999999999</v>
+        <v>273.72800000000001</v>
       </c>
       <c r="Q9">
-        <v>485.28500000000003</v>
+        <v>-13.866</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1379.308</v>
+        <v>356.738</v>
       </c>
       <c r="U9">
-        <v>1071.999</v>
+        <v>79.688000000000002</v>
       </c>
       <c r="V9">
-        <v>106.059</v>
+        <v>125.711</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>382.17899999999997</v>
+        <v>-134.62700000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>1.325</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>53</v>
+        <v>91.98</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>60.627000000000002</v>
+        <v>78.947000000000003</v>
       </c>
       <c r="D10">
-        <v>946.178</v>
+        <v>788.149</v>
       </c>
       <c r="E10">
-        <v>9.4209999999999994</v>
+        <v>10.807</v>
       </c>
       <c r="F10">
-        <v>178.13300000000001</v>
+        <v>190.61</v>
       </c>
       <c r="G10">
-        <v>2050.8319999999999</v>
+        <v>753.73599999999999</v>
       </c>
       <c r="H10">
-        <v>2604.8420000000001</v>
+        <v>1182.288</v>
       </c>
       <c r="I10">
-        <v>163.446</v>
+        <v>145.209</v>
       </c>
       <c r="J10">
-        <v>603.56200000000001</v>
+        <v>115</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>411.62900000000002</v>
+        <v>443.16300000000001</v>
       </c>
       <c r="O10">
-        <v>1124.365</v>
+        <v>779.04300000000001</v>
       </c>
       <c r="P10">
-        <v>604.31899999999996</v>
+        <v>259.16000000000003</v>
       </c>
       <c r="Q10">
-        <v>74.959000000000003</v>
+        <v>60.155999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>3291</v>
+        <v>3596</v>
       </c>
       <c r="T10">
-        <v>1480.4770000000001</v>
+        <v>403.245</v>
       </c>
       <c r="U10">
-        <v>1139.1030000000001</v>
+        <v>139.79599999999999</v>
       </c>
       <c r="V10">
-        <v>85.933999999999997</v>
+        <v>123.044</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>6.3680000000000003</v>
+        <v>-62.569000000000003</v>
       </c>
       <c r="Y10">
-        <v>0.75700000000000001</v>
+        <v>4.9029999999999996</v>
       </c>
       <c r="Z10">
-        <v>-1.054</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="AA10">
-        <v>60.627000000000002</v>
+        <v>78.947000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>35.040999999999997</v>
+        <v>87.805999999999997</v>
       </c>
       <c r="D11">
-        <v>772.23699999999997</v>
+        <v>743.42700000000002</v>
       </c>
       <c r="E11">
-        <v>14.536</v>
+        <v>10.141999999999999</v>
       </c>
       <c r="F11">
-        <v>138.97</v>
+        <v>198.238</v>
       </c>
       <c r="G11">
-        <v>2072.3609999999999</v>
+        <v>715.74699999999996</v>
       </c>
       <c r="H11">
-        <v>2665.0549999999998</v>
+        <v>1143.251</v>
       </c>
       <c r="I11">
-        <v>170.12899999999999</v>
+        <v>137.227</v>
       </c>
       <c r="J11">
-        <v>601.54899999999998</v>
+        <v>119.818</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-2.1880000000000002</v>
+        <v>-1.4570000000000001</v>
       </c>
       <c r="N11">
-        <v>384.37700000000001</v>
+        <v>418.83100000000002</v>
       </c>
       <c r="O11">
-        <v>1112.963</v>
+        <v>715.35599999999999</v>
       </c>
       <c r="P11">
-        <v>601.54899999999998</v>
+        <v>257.70299999999997</v>
       </c>
       <c r="Q11">
-        <v>-65.775999999999996</v>
+        <v>-47.180999999999997</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1552.0920000000001</v>
+        <v>427.89499999999998</v>
       </c>
       <c r="U11">
-        <v>1082.7919999999999</v>
+        <v>92.393000000000001</v>
       </c>
       <c r="V11">
-        <v>-78.093000000000004</v>
+        <v>74.462000000000003</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>26.323</v>
+        <v>-128.89400000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-10.667</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>35.040999999999997</v>
+        <v>87.805999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>50.69</v>
+        <v>95.091999999999999</v>
       </c>
       <c r="D12">
-        <v>1012.037</v>
+        <v>848.24099999999999</v>
       </c>
       <c r="E12">
-        <v>14.821999999999999</v>
+        <v>14.374000000000001</v>
       </c>
       <c r="F12">
-        <v>167.53800000000001</v>
+        <v>220.054</v>
       </c>
       <c r="G12">
-        <v>1921.462</v>
+        <v>1096.075</v>
       </c>
       <c r="H12">
-        <v>2531.1669999999999</v>
+        <v>1529.8520000000001</v>
       </c>
       <c r="I12">
-        <v>196.62799999999999</v>
+        <v>167.72</v>
       </c>
       <c r="J12">
-        <v>600.63499999999999</v>
+        <v>319.72399999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>470.18799999999999</v>
+        <v>429.07900000000001</v>
       </c>
       <c r="O12">
-        <v>1210.8879999999999</v>
+        <v>973.76800000000003</v>
       </c>
       <c r="P12">
-        <v>600.63499999999999</v>
+        <v>434.37599999999998</v>
       </c>
       <c r="Q12">
-        <v>-309.30700000000002</v>
+        <v>298.12200000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1320.279</v>
+        <v>556.08399999999995</v>
       </c>
       <c r="U12">
-        <v>773.28899999999999</v>
+        <v>390.17899999999997</v>
       </c>
       <c r="V12">
-        <v>-12.420999999999999</v>
+        <v>116.623</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-294.185</v>
+        <v>177.92400000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>1.7909999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>50.69</v>
+        <v>95.091999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>82.935000000000002</v>
+        <v>109.40300000000001</v>
       </c>
       <c r="D13">
-        <v>1191.393</v>
+        <v>980.08299999999997</v>
       </c>
       <c r="E13">
-        <v>13.137</v>
+        <v>15.444000000000001</v>
       </c>
       <c r="F13">
-        <v>216.012</v>
+        <v>253.72200000000001</v>
       </c>
       <c r="G13">
-        <v>1900.203</v>
+        <v>978.34500000000003</v>
       </c>
       <c r="H13">
-        <v>2518.8969999999999</v>
+        <v>1446.4770000000001</v>
       </c>
       <c r="I13">
-        <v>221.34299999999999</v>
+        <v>171.221</v>
       </c>
       <c r="J13">
-        <v>599.61199999999997</v>
+        <v>204.62700000000001</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>519.48800000000006</v>
+        <v>426.74700000000001</v>
       </c>
       <c r="O13">
-        <v>1243.8030000000001</v>
+        <v>881.40499999999997</v>
       </c>
       <c r="P13">
-        <v>599.61199999999997</v>
+        <v>302.29899999999998</v>
       </c>
       <c r="Q13">
-        <v>35.773000000000003</v>
+        <v>-170.49700000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1275.0940000000001</v>
+        <v>565.072</v>
       </c>
       <c r="U13">
-        <v>804.62900000000002</v>
+        <v>220.28200000000001</v>
       </c>
       <c r="V13">
-        <v>178.679</v>
+        <v>88.703000000000003</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-141.06</v>
+        <v>-259.73</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>4.0110000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>82.935000000000002</v>
+        <v>109.40300000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>97.811000000000007</v>
+        <v>127.49</v>
       </c>
       <c r="D14">
-        <v>1244.5450000000001</v>
+        <v>1114.396</v>
       </c>
       <c r="E14">
-        <v>9.5289999999999999</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="F14">
-        <v>247.04499999999999</v>
+        <v>278.18099999999998</v>
       </c>
       <c r="G14">
-        <v>1847.7429999999999</v>
+        <v>875.12099999999998</v>
       </c>
       <c r="H14">
-        <v>2486.1480000000001</v>
+        <v>1363.105</v>
       </c>
       <c r="I14">
-        <v>181.68700000000001</v>
+        <v>185.91300000000001</v>
       </c>
       <c r="J14">
-        <v>602.44000000000005</v>
+        <v>200</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>511.37299999999999</v>
+        <v>426.678</v>
       </c>
       <c r="O14">
-        <v>1224.796</v>
+        <v>868.23699999999997</v>
       </c>
       <c r="P14">
-        <v>602.55499999999995</v>
+        <v>257.85899999999998</v>
       </c>
       <c r="Q14">
-        <v>52.055999999999997</v>
+        <v>8.93</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>3944</v>
+        <v>3852</v>
       </c>
       <c r="T14">
-        <v>1261.3520000000001</v>
+        <v>494.86799999999999</v>
       </c>
       <c r="U14">
-        <v>844.274</v>
+        <v>228.589</v>
       </c>
       <c r="V14">
-        <v>182.05699999999999</v>
+        <v>272.99700000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-114.077</v>
+        <v>-264.048</v>
       </c>
       <c r="Y14">
-        <v>0.115</v>
+        <v>4.5190000000000001</v>
       </c>
       <c r="Z14">
-        <v>-11.202999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>97.811000000000007</v>
+        <v>127.49</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>23.849</v>
+        <v>100.617</v>
       </c>
       <c r="D15">
-        <v>813.49099999999999</v>
+        <v>878.39200000000005</v>
       </c>
       <c r="E15">
-        <v>10.055</v>
+        <v>19.86</v>
       </c>
       <c r="F15">
-        <v>146.023</v>
+        <v>229.09200000000001</v>
       </c>
       <c r="G15">
-        <v>1855.4929999999999</v>
+        <v>967.80499999999995</v>
       </c>
       <c r="H15">
-        <v>2524.7530000000002</v>
+        <v>1449.6369999999999</v>
       </c>
       <c r="I15">
-        <v>186.459</v>
+        <v>179.62</v>
       </c>
       <c r="J15">
-        <v>601.25099999999998</v>
+        <v>204.428</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-1.327</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>476.63</v>
+        <v>472.79899999999998</v>
       </c>
       <c r="O15">
-        <v>1198.671</v>
+        <v>932.25599999999997</v>
       </c>
       <c r="P15">
-        <v>601.25099999999998</v>
+        <v>294.39100000000002</v>
       </c>
       <c r="Q15">
-        <v>13.07</v>
+        <v>-20.920999999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1326.0820000000001</v>
+        <v>517.38099999999997</v>
       </c>
       <c r="U15">
-        <v>874.06200000000001</v>
+        <v>207.99199999999999</v>
       </c>
       <c r="V15">
-        <v>-15.786</v>
+        <v>49.691000000000003</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>28.850999999999999</v>
+        <v>-69.025000000000006</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>5.2960000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>23.849</v>
+        <v>100.617</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>68.177999999999997</v>
+        <v>115.97</v>
       </c>
       <c r="D16">
-        <v>1103.3309999999999</v>
+        <v>1003.006</v>
       </c>
       <c r="E16">
-        <v>15.196</v>
+        <v>22.795000000000002</v>
       </c>
       <c r="F16">
-        <v>208</v>
+        <v>260.66300000000001</v>
       </c>
       <c r="G16">
-        <v>1694.4760000000001</v>
+        <v>995.23599999999999</v>
       </c>
       <c r="H16">
-        <v>2382.0630000000001</v>
+        <v>1495.481</v>
       </c>
       <c r="I16">
-        <v>231.63300000000001</v>
+        <v>195.88</v>
       </c>
       <c r="J16">
-        <v>600.37800000000004</v>
+        <v>204.31700000000001</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>551.87300000000005</v>
+        <v>478.62599999999998</v>
       </c>
       <c r="O16">
-        <v>1282.848</v>
+        <v>984.053</v>
       </c>
       <c r="P16">
-        <v>600.37800000000004</v>
+        <v>295.89</v>
       </c>
       <c r="Q16">
-        <v>-325.61799999999999</v>
+        <v>-68.447000000000003</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1099.2149999999999</v>
+        <v>511.428</v>
       </c>
       <c r="U16">
-        <v>538.94000000000005</v>
+        <v>137.977</v>
       </c>
       <c r="V16">
-        <v>-1.294</v>
+        <v>61.311</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-312.15899999999999</v>
+        <v>-128.054</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>2.9860000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>68.177999999999997</v>
+        <v>115.97</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>90.152000000000001</v>
+        <v>147.679</v>
       </c>
       <c r="D17">
-        <v>1205.444</v>
+        <v>1168.229</v>
       </c>
       <c r="E17">
-        <v>11.465</v>
+        <v>16.001000000000001</v>
       </c>
       <c r="F17">
-        <v>233.29</v>
+        <v>313.53800000000001</v>
       </c>
       <c r="G17">
-        <v>1689.954</v>
+        <v>1177.1420000000001</v>
       </c>
       <c r="H17">
-        <v>2413.076</v>
+        <v>1706.444</v>
       </c>
       <c r="I17">
-        <v>227.93600000000001</v>
+        <v>224.55</v>
       </c>
       <c r="J17">
-        <v>599.80399999999997</v>
+        <v>204.20500000000001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>540.13499999999999</v>
+        <v>540.322</v>
       </c>
       <c r="O17">
-        <v>1261.682</v>
+        <v>1058.4639999999999</v>
       </c>
       <c r="P17">
-        <v>599.80399999999997</v>
+        <v>306.57299999999998</v>
       </c>
       <c r="Q17">
-        <v>-87.412000000000006</v>
+        <v>118.039</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1151.394</v>
+        <v>647.98</v>
       </c>
       <c r="U17">
-        <v>455.387</v>
+        <v>256.14100000000002</v>
       </c>
       <c r="V17">
-        <v>-24.780999999999999</v>
+        <v>136.518</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-56.802999999999997</v>
+        <v>-15.869</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0.42799999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>90.152000000000001</v>
+        <v>147.679</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>99.450999999999993</v>
+        <v>158.93799999999999</v>
       </c>
       <c r="D18">
-        <v>1330.095</v>
+        <v>1276.999</v>
       </c>
       <c r="E18">
-        <v>10.021000000000001</v>
+        <v>14.02</v>
       </c>
       <c r="F18">
-        <v>247.67500000000001</v>
+        <v>341.44099999999997</v>
       </c>
       <c r="G18">
-        <v>1656.162</v>
+        <v>1108.52</v>
       </c>
       <c r="H18">
-        <v>2351.335</v>
+        <v>1777.9670000000001</v>
       </c>
       <c r="I18">
-        <v>204.62200000000001</v>
+        <v>215.00200000000001</v>
       </c>
       <c r="J18">
-        <v>599.23</v>
+        <v>200</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>509.47699999999998</v>
+        <v>413.71800000000002</v>
       </c>
       <c r="O18">
-        <v>1227.08</v>
+        <v>942.97199999999998</v>
       </c>
       <c r="P18">
-        <v>599.23</v>
+        <v>213.803</v>
       </c>
       <c r="Q18">
-        <v>79.126000000000005</v>
+        <v>106.47499999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>3942</v>
+        <v>4407</v>
       </c>
       <c r="T18">
-        <v>1124.2550000000001</v>
+        <v>834.995</v>
       </c>
       <c r="U18">
-        <v>514.78</v>
+        <v>362.45800000000003</v>
       </c>
       <c r="V18">
-        <v>226.41</v>
+        <v>228.94200000000001</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-146.19</v>
+        <v>-119.41500000000001</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>4.077</v>
       </c>
       <c r="Z18">
-        <v>2.859</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>99.450999999999993</v>
+        <v>158.93799999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>39.058</v>
+        <v>117.93</v>
       </c>
       <c r="D19">
-        <v>959.55200000000002</v>
+        <v>956.40700000000004</v>
       </c>
       <c r="E19">
-        <v>10.023999999999999</v>
+        <v>17.119</v>
       </c>
       <c r="F19">
-        <v>166.374</v>
+        <v>270.26400000000001</v>
       </c>
       <c r="G19">
-        <v>1654.3009999999999</v>
+        <v>1221.444</v>
       </c>
       <c r="H19">
-        <v>2376.134</v>
+        <v>1844.5260000000001</v>
       </c>
       <c r="I19">
-        <v>193.92699999999999</v>
+        <v>205.10599999999999</v>
       </c>
       <c r="J19">
-        <v>599.18899999999996</v>
+        <v>203.983</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-6.4000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>484.16500000000002</v>
+        <v>496.77499999999998</v>
       </c>
       <c r="O19">
-        <v>1210.8969999999999</v>
+        <v>1058.5550000000001</v>
       </c>
       <c r="P19">
-        <v>599.18899999999996</v>
+        <v>302.36099999999999</v>
       </c>
       <c r="Q19">
-        <v>-12.906000000000001</v>
+        <v>-113.666</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1165.2370000000001</v>
+        <v>785.971</v>
       </c>
       <c r="U19">
-        <v>520.53200000000004</v>
+        <v>248.839</v>
       </c>
       <c r="V19">
-        <v>-1.603</v>
+        <v>46.975000000000001</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-11.839</v>
+        <v>-151.15100000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>5.2910000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>39.058</v>
+        <v>117.93</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>93.394999999999996</v>
+        <v>167.649</v>
       </c>
       <c r="D20">
-        <v>1246.058</v>
+        <v>1279.431</v>
       </c>
       <c r="E20">
-        <v>15.987</v>
+        <v>36.345999999999997</v>
       </c>
       <c r="F20">
-        <v>246.815</v>
+        <v>364.34800000000001</v>
       </c>
       <c r="G20">
-        <v>1868.8489999999999</v>
+        <v>1427.546</v>
       </c>
       <c r="H20">
-        <v>2596.2350000000001</v>
+        <v>2114.6109999999999</v>
       </c>
       <c r="I20">
-        <v>256.52100000000002</v>
+        <v>240.726</v>
       </c>
       <c r="J20">
-        <v>599.21299999999997</v>
+        <v>203.464</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>582.10599999999999</v>
+        <v>645.80600000000004</v>
       </c>
       <c r="O20">
-        <v>1321.354</v>
+        <v>1298.221</v>
       </c>
       <c r="P20">
-        <v>599.21299999999997</v>
+        <v>331.23599999999999</v>
       </c>
       <c r="Q20">
-        <v>-34.927999999999997</v>
+        <v>11.38</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1274.8810000000001</v>
+        <v>816.39</v>
       </c>
       <c r="U20">
-        <v>476.49299999999999</v>
+        <v>259.80399999999997</v>
       </c>
       <c r="V20">
-        <v>-38.805999999999997</v>
+        <v>130.191</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>3.3450000000000002</v>
+        <v>-116.56100000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>4.0250000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>93.394999999999996</v>
+        <v>167.649</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>116.47</v>
+        <v>189.44300000000001</v>
       </c>
       <c r="D21">
-        <v>1404.9659999999999</v>
+        <v>1375.7380000000001</v>
       </c>
       <c r="E21">
-        <v>9.85</v>
+        <v>19.212</v>
       </c>
       <c r="F21">
-        <v>279.56</v>
+        <v>405.202</v>
       </c>
       <c r="G21">
-        <v>1827.422</v>
+        <v>2006.549</v>
       </c>
       <c r="H21">
-        <v>2570.6819999999998</v>
+        <v>2216.114</v>
       </c>
       <c r="I21">
-        <v>260.94099999999997</v>
+        <v>281.20999999999998</v>
       </c>
       <c r="J21">
-        <v>599.23699999999997</v>
+        <v>203.34899999999999</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>597.26400000000001</v>
+        <v>641.90700000000004</v>
       </c>
       <c r="O21">
-        <v>1330.192</v>
+        <v>1310.7149999999999</v>
       </c>
       <c r="P21">
-        <v>599.23699999999997</v>
+        <v>317.048</v>
       </c>
       <c r="Q21">
-        <v>-110.123</v>
+        <v>-19.312999999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1240.49</v>
+        <v>905.399</v>
       </c>
       <c r="U21">
-        <v>375.88600000000002</v>
+        <v>240.34</v>
       </c>
       <c r="V21">
-        <v>55.991</v>
+        <v>110.405</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-164.43199999999999</v>
+        <v>-127.568</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>3.0630000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>116.47</v>
+        <v>189.44300000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>134.00399999999999</v>
+        <v>222.53700000000001</v>
       </c>
       <c r="D22">
-        <v>1557.873</v>
+        <v>1662.086</v>
       </c>
       <c r="E22">
-        <v>11.481999999999999</v>
+        <v>40.561999999999998</v>
       </c>
       <c r="F22">
-        <v>304.50799999999998</v>
+        <v>476.55</v>
       </c>
       <c r="G22">
-        <v>1787.365</v>
+        <v>1205.9949999999999</v>
       </c>
       <c r="H22">
-        <v>2511.7179999999998</v>
+        <v>2237.6689999999999</v>
       </c>
       <c r="I22">
-        <v>227.43700000000001</v>
+        <v>262.08600000000001</v>
       </c>
       <c r="J22">
-        <v>595.84699999999998</v>
+        <v>200</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>552.35</v>
+        <v>885.06100000000004</v>
       </c>
       <c r="O22">
-        <v>1272.5530000000001</v>
+        <v>1560.5070000000001</v>
       </c>
       <c r="P22">
-        <v>595.84699999999998</v>
+        <v>463.14100000000002</v>
       </c>
       <c r="Q22">
-        <v>37.853999999999999</v>
+        <v>-68.239999999999995</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>4300</v>
+        <v>5401</v>
       </c>
       <c r="T22">
-        <v>1239.165</v>
+        <v>677.16200000000003</v>
       </c>
       <c r="U22">
-        <v>397.52199999999999</v>
+        <v>170.09</v>
       </c>
       <c r="V22">
-        <v>187.809</v>
+        <v>245.20099999999999</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-149.54599999999999</v>
+        <v>-305.23399999999998</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>3.3250000000000002</v>
       </c>
       <c r="Z22">
-        <v>4.1929999999999996</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>134.00399999999999</v>
+        <v>222.53700000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>65.302999999999997</v>
+        <v>132.56</v>
       </c>
       <c r="D23">
-        <v>1146.4670000000001</v>
+        <v>1208.49</v>
       </c>
       <c r="E23">
-        <v>13.829000000000001</v>
+        <v>12.573</v>
       </c>
       <c r="F23">
-        <v>206.16900000000001</v>
+        <v>344.786</v>
       </c>
       <c r="G23">
-        <v>1787.566</v>
+        <v>1545.8510000000001</v>
       </c>
       <c r="H23">
-        <v>2541.6509999999998</v>
+        <v>2347.703</v>
       </c>
       <c r="I23">
-        <v>232.221</v>
+        <v>293.81</v>
       </c>
       <c r="J23">
-        <v>595.99900000000002</v>
+        <v>418.262</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>561.40700000000004</v>
+        <v>672.57500000000005</v>
       </c>
       <c r="O23">
-        <v>1285.1880000000001</v>
+        <v>1573.809</v>
       </c>
       <c r="P23">
-        <v>595.99900000000002</v>
+        <v>496.654</v>
       </c>
       <c r="Q23">
-        <v>-106.334</v>
+        <v>-73.018000000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1256.463</v>
+        <v>773.89400000000001</v>
       </c>
       <c r="U23">
-        <v>302.94499999999999</v>
+        <v>101.979</v>
       </c>
       <c r="V23">
-        <v>-39.993000000000002</v>
+        <v>-52.384</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-64.988</v>
+        <v>-15.875</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>3.879</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>65.302999999999997</v>
+        <v>132.56</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>91.676000000000002</v>
+        <v>190.352</v>
       </c>
       <c r="D24">
-        <v>1390.373</v>
+        <v>1753.3530000000001</v>
       </c>
       <c r="E24">
-        <v>17.463999999999999</v>
+        <v>19.172000000000001</v>
       </c>
       <c r="F24">
-        <v>249.31700000000001</v>
+        <v>464.73399999999998</v>
       </c>
       <c r="G24">
-        <v>1911.0039999999999</v>
+        <v>1675.604</v>
       </c>
       <c r="H24">
-        <v>2698.424</v>
+        <v>2527.826</v>
       </c>
       <c r="I24">
-        <v>272.76799999999997</v>
+        <v>319.28100000000001</v>
       </c>
       <c r="J24">
-        <v>596.15099999999995</v>
+        <v>203.2</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>601.97500000000002</v>
+        <v>874.34500000000003</v>
       </c>
       <c r="O24">
-        <v>1340.8230000000001</v>
+        <v>1527.6189999999999</v>
       </c>
       <c r="P24">
-        <v>596.15099999999995</v>
+        <v>371.38799999999998</v>
       </c>
       <c r="Q24">
-        <v>45.512</v>
+        <v>71.459999999999994</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1357.6010000000001</v>
+        <v>1000.207</v>
       </c>
       <c r="U24">
-        <v>353.17599999999999</v>
+        <v>172.845</v>
       </c>
       <c r="V24">
-        <v>52.564999999999998</v>
+        <v>179.214</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-3.7610000000000001</v>
+        <v>-102.901</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>2.8029999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>91.676000000000002</v>
+        <v>190.352</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>117.392</v>
+        <v>129.333</v>
       </c>
       <c r="D25">
-        <v>1540.2719999999999</v>
+        <v>1558.635</v>
       </c>
       <c r="E25">
-        <v>13.920999999999999</v>
+        <v>16.762</v>
       </c>
       <c r="F25">
-        <v>283.20800000000003</v>
+        <v>391.62200000000001</v>
       </c>
       <c r="G25">
-        <v>1889.1790000000001</v>
+        <v>1732.4829999999999</v>
       </c>
       <c r="H25">
-        <v>2663.2159999999999</v>
+        <v>2472.7449999999999</v>
       </c>
       <c r="I25">
-        <v>281.52999999999997</v>
+        <v>281.08199999999999</v>
       </c>
       <c r="J25">
-        <v>596.303</v>
+        <v>203.14099999999999</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>622.20000000000005</v>
+        <v>762.13</v>
       </c>
       <c r="O25">
-        <v>1364.077</v>
+        <v>1386.229</v>
       </c>
       <c r="P25">
-        <v>596.303</v>
+        <v>371.20299999999997</v>
       </c>
       <c r="Q25">
-        <v>-102.066</v>
+        <v>62.637</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1299.1389999999999</v>
+        <v>1086.5160000000001</v>
       </c>
       <c r="U25">
-        <v>249.72800000000001</v>
+        <v>235.77099999999999</v>
       </c>
       <c r="V25">
-        <v>89.864999999999995</v>
+        <v>125.568</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-189.273</v>
+        <v>-57.063000000000002</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>1.827</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>117.392</v>
+        <v>129.333</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>150.89099999999999</v>
+        <v>135.167</v>
       </c>
       <c r="D26">
-        <v>1755.8209999999999</v>
+        <v>1634.9590000000001</v>
       </c>
       <c r="E26">
-        <v>18.937000000000001</v>
+        <v>12.212999999999999</v>
       </c>
       <c r="F26">
-        <v>326.08300000000003</v>
+        <v>386.65699999999998</v>
       </c>
       <c r="G26">
-        <v>1889.172</v>
+        <v>1480.3920000000001</v>
       </c>
       <c r="H26">
-        <v>2643.9430000000002</v>
+        <v>2473.808</v>
       </c>
       <c r="I26">
-        <v>251.21199999999999</v>
+        <v>273.93599999999998</v>
       </c>
       <c r="J26">
-        <v>596.45500000000004</v>
+        <v>200</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>608.11099999999999</v>
+        <v>708.495</v>
       </c>
       <c r="O26">
-        <v>1339.502</v>
+        <v>1321.7339999999999</v>
       </c>
       <c r="P26">
-        <v>596.45500000000004</v>
+        <v>356.63200000000001</v>
       </c>
       <c r="Q26">
-        <v>134.191</v>
+        <v>317.51400000000001</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>4900</v>
+        <v>4548</v>
       </c>
       <c r="T26">
-        <v>1304.441</v>
+        <v>1152.0740000000001</v>
       </c>
       <c r="U26">
-        <v>376.96199999999999</v>
+        <v>551.73800000000006</v>
       </c>
       <c r="V26">
-        <v>295.68900000000002</v>
+        <v>430.565</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-159.37299999999999</v>
+        <v>-105.93300000000001</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="Z26">
-        <v>3.4319999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>150.89099999999999</v>
+        <v>135.167</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>102.923</v>
+        <v>84.820999999999998</v>
       </c>
       <c r="D27">
-        <v>1279.855</v>
+        <v>1101.461</v>
       </c>
       <c r="E27">
-        <v>19.876000000000001</v>
+        <v>12.179</v>
       </c>
       <c r="F27">
-        <v>237.643</v>
+        <v>251.011</v>
       </c>
       <c r="G27">
-        <v>1979.7929999999999</v>
+        <v>1473.329</v>
       </c>
       <c r="H27">
-        <v>2742.299</v>
+        <v>2467.9470000000001</v>
       </c>
       <c r="I27">
-        <v>237.7</v>
+        <v>235.18</v>
       </c>
       <c r="J27">
-        <v>596.60699999999997</v>
+        <v>200</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-74.552000000000007</v>
       </c>
       <c r="N27">
-        <v>588.17999999999995</v>
+        <v>566.57100000000003</v>
       </c>
       <c r="O27">
-        <v>1334.019</v>
+        <v>1212.819</v>
       </c>
       <c r="P27">
-        <v>596.60699999999997</v>
+        <v>282.08</v>
       </c>
       <c r="Q27">
-        <v>94.703000000000003</v>
+        <v>1.123</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1408.28</v>
+        <v>1255.1279999999999</v>
       </c>
       <c r="U27">
-        <v>482.68900000000002</v>
+        <v>555.31700000000001</v>
       </c>
       <c r="V27">
-        <v>108.262</v>
+        <v>72.563999999999993</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-10.282</v>
+        <v>-70.641999999999996</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>3.0179999999999998</v>
       </c>
       <c r="Z27">
-        <v>1.7070000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>102.923</v>
+        <v>84.820999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>147.87700000000001</v>
+        <v>90.747</v>
       </c>
       <c r="D28">
-        <v>1547.4929999999999</v>
+        <v>1322.9490000000001</v>
       </c>
       <c r="E28">
-        <v>22.11</v>
+        <v>13.474</v>
       </c>
       <c r="F28">
-        <v>313.709</v>
+        <v>307.173</v>
       </c>
       <c r="G28">
-        <v>2179.924</v>
+        <v>1633</v>
       </c>
       <c r="H28">
-        <v>2918.087</v>
+        <v>2503.2809999999999</v>
       </c>
       <c r="I28">
-        <v>271.899</v>
+        <v>272.68799999999999</v>
       </c>
       <c r="J28">
-        <v>596.76</v>
+        <v>200</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>618.99199999999996</v>
+        <v>653.48800000000006</v>
       </c>
       <c r="O28">
-        <v>1382.31</v>
+        <v>1223.6610000000001</v>
       </c>
       <c r="P28">
-        <v>596.76</v>
+        <v>339.07799999999997</v>
       </c>
       <c r="Q28">
-        <v>37.436</v>
+        <v>16.84</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1535.777</v>
+        <v>1279.6199999999999</v>
       </c>
       <c r="U28">
-        <v>518.48199999999997</v>
+        <v>571.52200000000005</v>
       </c>
       <c r="V28">
-        <v>69.945999999999998</v>
+        <v>42.302999999999997</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-31.257999999999999</v>
+        <v>-23.443000000000001</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="Z28">
-        <v>3.0760000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>147.87700000000001</v>
+        <v>90.747</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>162.102</v>
+        <v>91.113</v>
       </c>
       <c r="D29">
-        <v>1671.588</v>
+        <v>1297.375</v>
       </c>
       <c r="E29">
-        <v>20.448</v>
+        <v>17.666</v>
       </c>
       <c r="F29">
-        <v>345.89100000000002</v>
+        <v>300.59500000000003</v>
       </c>
       <c r="G29">
-        <v>2302.8969999999999</v>
+        <v>1452.0029999999999</v>
       </c>
       <c r="H29">
-        <v>3049.511</v>
+        <v>2246.674</v>
       </c>
       <c r="I29">
-        <v>267.03899999999999</v>
+        <v>266.36200000000002</v>
       </c>
       <c r="J29">
-        <v>596.91300000000001</v>
+        <v>200</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>638.78399999999999</v>
+        <v>637.89700000000005</v>
       </c>
       <c r="O29">
-        <v>1398.835</v>
+        <v>1194.596</v>
       </c>
       <c r="P29">
-        <v>596.91300000000001</v>
+        <v>314.53500000000003</v>
       </c>
       <c r="Q29">
-        <v>95.757000000000005</v>
+        <v>-256.89100000000002</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1650.6759999999999</v>
+        <v>1052.078</v>
       </c>
       <c r="U29">
-        <v>611.09400000000005</v>
+        <v>314.36399999999998</v>
       </c>
       <c r="V29">
-        <v>157.43799999999999</v>
+        <v>66</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-58.414000000000001</v>
+        <v>-320.26400000000001</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>2.8879999999999999</v>
       </c>
       <c r="Z29">
-        <v>2.427</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>162.102</v>
+        <v>91.113</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>124.619</v>
+        <v>67.274000000000001</v>
       </c>
       <c r="D30">
-        <v>1821.29</v>
+        <v>1433.575</v>
       </c>
       <c r="E30">
-        <v>20.026</v>
+        <v>10.855</v>
       </c>
       <c r="F30">
-        <v>364.97699999999998</v>
+        <v>299.13099999999997</v>
       </c>
       <c r="G30">
-        <v>2331.6640000000002</v>
+        <v>1471.2560000000001</v>
       </c>
       <c r="H30">
-        <v>2989.279</v>
+        <v>2194.4160000000002</v>
       </c>
       <c r="I30">
-        <v>261.97300000000001</v>
+        <v>219.048</v>
       </c>
       <c r="J30">
-        <v>597.06600000000003</v>
+        <v>200</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>622.68799999999999</v>
+        <v>572.53700000000003</v>
       </c>
       <c r="O30">
-        <v>1383.787</v>
+        <v>1065.0409999999999</v>
       </c>
       <c r="P30">
-        <v>597.06600000000003</v>
+        <v>286.28300000000002</v>
       </c>
       <c r="Q30">
-        <v>45.624000000000002</v>
+        <v>347.01799999999997</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>5200</v>
+        <v>4119</v>
       </c>
       <c r="T30">
-        <v>1605.492</v>
+        <v>1129.375</v>
       </c>
       <c r="U30">
-        <v>646.15599999999995</v>
+        <v>660.70899999999995</v>
       </c>
       <c r="V30">
-        <v>234.708</v>
+        <v>377.899</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-181.68700000000001</v>
+        <v>-27.012</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="Z30">
-        <v>-2.9809999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>124.619</v>
+        <v>67.274000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>166.04900000000001</v>
+        <v>43.466000000000001</v>
       </c>
       <c r="D31">
-        <v>1533.4839999999999</v>
+        <v>895.14</v>
       </c>
       <c r="E31">
-        <v>22.373999999999999</v>
+        <v>8.6219999999999999</v>
       </c>
       <c r="F31">
-        <v>302.55200000000002</v>
+        <v>160.58000000000001</v>
       </c>
       <c r="G31">
-        <v>2170.8240000000001</v>
+        <v>1499.472</v>
       </c>
       <c r="H31">
-        <v>2846.0650000000001</v>
+        <v>2209.576</v>
       </c>
       <c r="I31">
-        <v>265.15499999999997</v>
+        <v>175.107</v>
       </c>
       <c r="J31">
-        <v>597.22</v>
+        <v>200</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-15.281000000000001</v>
       </c>
       <c r="N31">
-        <v>614.55100000000004</v>
+        <v>515.10599999999999</v>
       </c>
       <c r="O31">
-        <v>1379.2570000000001</v>
+        <v>985.19799999999998</v>
       </c>
       <c r="P31">
-        <v>597.22</v>
+        <v>271.00200000000001</v>
       </c>
       <c r="Q31">
-        <v>-238.846</v>
+        <v>103.449</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1466.808</v>
+        <v>1224.3779999999999</v>
       </c>
       <c r="U31">
-        <v>415.911</v>
+        <v>766.59699999999998</v>
       </c>
       <c r="V31">
-        <v>78.028000000000006</v>
+        <v>75.040999999999997</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-316.43799999999999</v>
+        <v>29.922999999999998</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>2.774</v>
       </c>
       <c r="Z31">
-        <v>2.4820000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>166.04900000000001</v>
+        <v>43.466000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>203.17400000000001</v>
+        <v>51.332000000000001</v>
       </c>
       <c r="D32">
-        <v>1792.384</v>
+        <v>960.29300000000001</v>
       </c>
       <c r="E32">
-        <v>30.178999999999998</v>
+        <v>16.189</v>
       </c>
       <c r="F32">
-        <v>354.15</v>
+        <v>185.32</v>
       </c>
       <c r="G32">
-        <v>2354.9540000000002</v>
+        <v>1644.6790000000001</v>
       </c>
       <c r="H32">
-        <v>3009.395</v>
+        <v>2313.855</v>
       </c>
       <c r="I32">
-        <v>290.923</v>
+        <v>191.15799999999999</v>
       </c>
       <c r="J32">
-        <v>597.37300000000005</v>
+        <v>200</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>632.41800000000001</v>
+        <v>552.13400000000001</v>
       </c>
       <c r="O32">
-        <v>1401.8240000000001</v>
+        <v>997.90200000000004</v>
       </c>
       <c r="P32">
-        <v>597.37300000000005</v>
+        <v>318.90199999999999</v>
       </c>
       <c r="Q32">
-        <v>7.7690000000000001</v>
+        <v>100.48099999999999</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1607.5709999999999</v>
+        <v>1315.953</v>
       </c>
       <c r="U32">
-        <v>418.46899999999999</v>
+        <v>867.32899999999995</v>
       </c>
       <c r="V32">
-        <v>91.421999999999997</v>
+        <v>25.907</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-81.006</v>
+        <v>76.043999999999997</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>2.7029999999999998</v>
       </c>
       <c r="Z32">
-        <v>3.2610000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>203.17400000000001</v>
+        <v>51.332000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>195.816</v>
+        <v>36.551000000000002</v>
       </c>
       <c r="D33">
-        <v>1858.6089999999999</v>
+        <v>944.39599999999996</v>
       </c>
       <c r="E33">
-        <v>26.363</v>
+        <v>10.444000000000001</v>
       </c>
       <c r="F33">
-        <v>365.05</v>
+        <v>173.501</v>
       </c>
       <c r="G33">
-        <v>2434.7370000000001</v>
+        <v>1700.3440000000001</v>
       </c>
       <c r="H33">
-        <v>3089.8229999999999</v>
+        <v>2308.152</v>
       </c>
       <c r="I33">
-        <v>283.762</v>
+        <v>181.40299999999999</v>
       </c>
       <c r="J33">
-        <v>597.52700000000004</v>
+        <v>200</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>642.30399999999997</v>
+        <v>521.60699999999997</v>
       </c>
       <c r="O33">
-        <v>1407.5070000000001</v>
+        <v>935.67700000000002</v>
       </c>
       <c r="P33">
-        <v>597.52700000000004</v>
+        <v>293.41199999999998</v>
       </c>
       <c r="Q33">
-        <v>174.07</v>
+        <v>96.902000000000001</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1682.316</v>
+        <v>1372.4749999999999</v>
       </c>
       <c r="U33">
-        <v>599.12400000000002</v>
+        <v>963.31299999999999</v>
       </c>
       <c r="V33">
-        <v>322.36500000000001</v>
+        <v>114.61199999999999</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-144.89099999999999</v>
+        <v>-16.803000000000001</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Z33">
-        <v>1.8460000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>195.816</v>
+        <v>36.551000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>232.15799999999999</v>
+        <v>-30.457000000000001</v>
       </c>
       <c r="D34">
-        <v>2002.6289999999999</v>
+        <v>913.55100000000004</v>
       </c>
       <c r="E34">
-        <v>35.640999999999998</v>
+        <v>11.593999999999999</v>
       </c>
       <c r="F34">
-        <v>390.89</v>
+        <v>139.79599999999999</v>
       </c>
       <c r="G34">
-        <v>2492.8090000000002</v>
+        <v>1632.2950000000001</v>
       </c>
       <c r="H34">
-        <v>3165.933</v>
+        <v>2103.2359999999999</v>
       </c>
       <c r="I34">
-        <v>244.49600000000001</v>
+        <v>137.285</v>
       </c>
       <c r="J34">
-        <v>597.68100000000004</v>
+        <v>163.32</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>605.84400000000005</v>
+        <v>394.53500000000003</v>
       </c>
       <c r="O34">
-        <v>1357.3710000000001</v>
+        <v>729.447</v>
       </c>
       <c r="P34">
-        <v>597.68100000000004</v>
+        <v>210.38900000000001</v>
       </c>
       <c r="Q34">
-        <v>99.697999999999993</v>
+        <v>182.602</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>5600</v>
+        <v>2845</v>
       </c>
       <c r="T34">
-        <v>1808.5619999999999</v>
+        <v>1373.789</v>
       </c>
       <c r="U34">
-        <v>688.78300000000002</v>
+        <v>1146.4259999999999</v>
       </c>
       <c r="V34">
-        <v>231.31100000000001</v>
+        <v>246.80099999999999</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-129.923</v>
+        <v>-62.593000000000004</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="Z34">
-        <v>2.6419999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>232.15799999999999</v>
+        <v>-30.457000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>188.40600000000001</v>
+        <v>17.988</v>
       </c>
       <c r="D35">
-        <v>1695.5809999999999</v>
+        <v>561.72199999999998</v>
       </c>
       <c r="E35">
-        <v>30.488</v>
+        <v>9.2509999999999994</v>
       </c>
       <c r="F35">
-        <v>340.334</v>
+        <v>93.085999999999999</v>
       </c>
       <c r="G35">
-        <v>2609.5010000000002</v>
+        <v>1731.454</v>
       </c>
       <c r="H35">
-        <v>3362.7710000000002</v>
+        <v>2131.15</v>
       </c>
       <c r="I35">
-        <v>283.11900000000003</v>
+        <v>119.29300000000001</v>
       </c>
       <c r="J35">
-        <v>597.83600000000001</v>
+        <v>163.32</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>661.68</v>
+        <v>367.98</v>
       </c>
       <c r="O35">
-        <v>1463.9949999999999</v>
+        <v>656.17899999999997</v>
       </c>
       <c r="P35">
-        <v>684.57</v>
+        <v>241.179</v>
       </c>
       <c r="Q35">
-        <v>108.45099999999999</v>
+        <v>-604.87400000000002</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1898.7760000000001</v>
+        <v>1474.971</v>
       </c>
       <c r="U35">
-        <v>805.495</v>
+        <v>541.49</v>
       </c>
       <c r="V35">
-        <v>227.85499999999999</v>
+        <v>1.2270000000000001</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-117.52500000000001</v>
+        <v>102.21599999999999</v>
       </c>
       <c r="Y35">
-        <v>61.844999999999999</v>
+        <v>2.4780000000000002</v>
       </c>
       <c r="Z35">
-        <v>2.9220000000000002</v>
+        <v>-708.36199999999997</v>
       </c>
       <c r="AA35">
-        <v>188.40600000000001</v>
+        <v>17.988</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>210.209</v>
+        <v>41.426000000000002</v>
       </c>
       <c r="D36">
-        <v>1808.7639999999999</v>
+        <v>627.79200000000003</v>
       </c>
       <c r="E36">
-        <v>28.943000000000001</v>
+        <v>9.2270000000000003</v>
       </c>
       <c r="F36">
-        <v>362.95499999999998</v>
+        <v>122.455</v>
       </c>
       <c r="G36">
-        <v>2832.924</v>
+        <v>1834.604</v>
       </c>
       <c r="H36">
-        <v>3603.24</v>
+        <v>2237.085</v>
       </c>
       <c r="I36">
-        <v>309.41899999999998</v>
+        <v>142.55699999999999</v>
       </c>
       <c r="J36">
-        <v>597.99099999999999</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>664.53899999999999</v>
+        <v>555.245</v>
       </c>
       <c r="O36">
-        <v>1483.8009999999999</v>
+        <v>688.48299999999995</v>
       </c>
       <c r="P36">
-        <v>690.53800000000001</v>
+        <v>234.779</v>
       </c>
       <c r="Q36">
-        <v>65.709999999999994</v>
+        <v>40.499000000000002</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2119.4389999999999</v>
+        <v>1548.6020000000001</v>
       </c>
       <c r="U36">
-        <v>861.25</v>
+        <v>582.15700000000004</v>
       </c>
       <c r="V36">
-        <v>74.763999999999996</v>
+        <v>-23.62</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-8.1349999999999998</v>
+        <v>14.170999999999999</v>
       </c>
       <c r="Y36">
-        <v>75.063999999999993</v>
+        <v>2.3879999999999999</v>
       </c>
       <c r="Z36">
-        <v>3.91</v>
+        <v>50</v>
       </c>
       <c r="AA36">
-        <v>210.209</v>
+        <v>41.426000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>223.78700000000001</v>
+        <v>72.126999999999995</v>
       </c>
       <c r="D37">
-        <v>1921.3</v>
+        <v>817.125</v>
       </c>
       <c r="E37">
-        <v>29.276</v>
+        <v>9.0150000000000006</v>
       </c>
       <c r="F37">
-        <v>383.15100000000001</v>
+        <v>171.904</v>
       </c>
       <c r="G37">
-        <v>3083.5349999999999</v>
+        <v>1973.0260000000001</v>
       </c>
       <c r="H37">
-        <v>3843.3589999999999</v>
+        <v>2374.7800000000002</v>
       </c>
       <c r="I37">
-        <v>285.714</v>
+        <v>150.304</v>
       </c>
       <c r="J37">
-        <v>598.14599999999996</v>
+        <v>133.37</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>648.16099999999994</v>
+        <v>447.81400000000002</v>
       </c>
       <c r="O37">
-        <v>1471.902</v>
+        <v>703.19299999999998</v>
       </c>
       <c r="P37">
-        <v>690.07299999999998</v>
+        <v>211.27099999999999</v>
       </c>
       <c r="Q37">
-        <v>209.65100000000001</v>
+        <v>532.40300000000002</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>2371.4569999999999</v>
+        <v>1671.587</v>
       </c>
       <c r="U37">
-        <v>1068.4649999999999</v>
+        <v>1114.5809999999999</v>
       </c>
       <c r="V37">
-        <v>206.81700000000001</v>
+        <v>140.32900000000001</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>7.3570000000000002</v>
+        <v>15.904</v>
       </c>
       <c r="Y37">
-        <v>82.658000000000001</v>
+        <v>2.294</v>
       </c>
       <c r="Z37">
-        <v>1.07</v>
+        <v>376.95600000000002</v>
       </c>
       <c r="AA37">
-        <v>223.78700000000001</v>
+        <v>72.126999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>256.137</v>
+        <v>60.639000000000003</v>
       </c>
       <c r="D38">
-        <v>1999.94</v>
+        <v>748.88499999999999</v>
       </c>
       <c r="E38">
-        <v>32.878</v>
+        <v>7.9950000000000001</v>
       </c>
       <c r="F38">
-        <v>411.23700000000002</v>
+        <v>148.05799999999999</v>
       </c>
       <c r="G38">
-        <v>3040.73</v>
+        <v>1961.1569999999999</v>
       </c>
       <c r="H38">
-        <v>3809.8150000000001</v>
+        <v>2395.77</v>
       </c>
       <c r="I38">
-        <v>262.98700000000002</v>
+        <v>120.464</v>
       </c>
       <c r="J38">
-        <v>598.30100000000004</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>634.50699999999995</v>
+        <v>503.63600000000002</v>
       </c>
       <c r="O38">
-        <v>1468.5709999999999</v>
+        <v>638.50800000000004</v>
       </c>
       <c r="P38">
-        <v>683.678</v>
+        <v>147.88</v>
       </c>
       <c r="Q38">
-        <v>44.744</v>
+        <v>134.47900000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>5700</v>
+        <v>2688</v>
       </c>
       <c r="T38">
-        <v>2341.2440000000001</v>
+        <v>1757.2619999999999</v>
       </c>
       <c r="U38">
-        <v>1110.8920000000001</v>
+        <v>1248.6890000000001</v>
       </c>
       <c r="V38">
-        <v>357.09899999999999</v>
+        <v>123.706</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-306.392</v>
+        <v>-49.808999999999997</v>
       </c>
       <c r="Y38">
-        <v>85.376999999999995</v>
+        <v>2.1659999999999999</v>
       </c>
       <c r="Z38">
-        <v>-0.35699999999999998</v>
+        <v>61.871000000000002</v>
       </c>
       <c r="AA38">
-        <v>256.137</v>
+        <v>60.639000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>175.703</v>
+        <v>32.087000000000003</v>
       </c>
       <c r="D39">
-        <v>1590.3330000000001</v>
+        <v>593.33900000000006</v>
       </c>
       <c r="E39">
-        <v>27.088999999999999</v>
+        <v>8.0909999999999993</v>
       </c>
       <c r="F39">
-        <v>277.75599999999997</v>
+        <v>115.643</v>
       </c>
       <c r="G39">
-        <v>3130.6680000000001</v>
+        <v>2058.6770000000001</v>
       </c>
       <c r="H39">
-        <v>3887.5230000000001</v>
+        <v>2476.3969999999999</v>
       </c>
       <c r="I39">
-        <v>306.08699999999999</v>
+        <v>144.15299999999999</v>
       </c>
       <c r="J39">
-        <v>598.45600000000002</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>641.35500000000002</v>
+        <v>533.31200000000001</v>
       </c>
       <c r="O39">
-        <v>1470.604</v>
+        <v>607.673</v>
       </c>
       <c r="P39">
-        <v>682.08799999999997</v>
+        <v>191.71899999999999</v>
       </c>
       <c r="Q39">
-        <v>-42.536999999999999</v>
+        <v>92.141999999999996</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2416.9189999999999</v>
+        <v>1868.7239999999999</v>
       </c>
       <c r="U39">
-        <v>1078.8720000000001</v>
+        <v>1340.9780000000001</v>
       </c>
       <c r="V39">
-        <v>68.441000000000003</v>
+        <v>-118.163</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-107.72</v>
+        <v>117.536</v>
       </c>
       <c r="Y39">
-        <v>83.632000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>93.534999999999997</v>
       </c>
       <c r="AA39">
-        <v>175.703</v>
+        <v>32.087000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>164.07499999999999</v>
+        <v>71.275999999999996</v>
       </c>
       <c r="D40">
-        <v>1624.63</v>
+        <v>968.10599999999999</v>
       </c>
       <c r="E40">
-        <v>20.800999999999998</v>
+        <v>15.010999999999999</v>
       </c>
       <c r="F40">
-        <v>322.59899999999999</v>
+        <v>190.26599999999999</v>
       </c>
       <c r="G40">
-        <v>4008.74</v>
+        <v>1945.9069999999999</v>
       </c>
       <c r="H40">
-        <v>4730.0200000000004</v>
+        <v>2359.4349999999999</v>
       </c>
       <c r="I40">
-        <v>294.25400000000002</v>
+        <v>161.708</v>
       </c>
       <c r="J40">
-        <v>1193.962</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>685.86699999999996</v>
+        <v>472.62599999999998</v>
       </c>
       <c r="O40">
-        <v>2117.6080000000002</v>
+        <v>543.96900000000005</v>
       </c>
       <c r="P40">
-        <v>1273.7249999999999</v>
+        <v>81.024000000000001</v>
       </c>
       <c r="Q40">
-        <v>909.73</v>
+        <v>-251.41</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2612.4119999999998</v>
+        <v>1815.4659999999999</v>
       </c>
       <c r="U40">
-        <v>1983.162</v>
+        <v>1089.3989999999999</v>
       </c>
       <c r="V40">
-        <v>302.22800000000001</v>
+        <v>51.856999999999999</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>612.04999999999995</v>
+        <v>-250.37700000000001</v>
       </c>
       <c r="Y40">
-        <v>79.763000000000005</v>
+        <v>1.9990000000000001</v>
       </c>
       <c r="Z40">
-        <v>-3.7999999999999999E-2</v>
+        <v>-51</v>
       </c>
       <c r="AA40">
-        <v>164.07499999999999</v>
+        <v>71.275999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>256.46600000000001</v>
+        <v>43.944000000000003</v>
       </c>
       <c r="D41">
-        <v>1994.222</v>
+        <v>681.02200000000005</v>
       </c>
       <c r="E41">
-        <v>21.460999999999999</v>
+        <v>10.714</v>
       </c>
       <c r="F41">
-        <v>433.70699999999999</v>
+        <v>131.21899999999999</v>
       </c>
       <c r="G41">
-        <v>4753.8909999999996</v>
+        <v>1824.098</v>
       </c>
       <c r="H41">
-        <v>5499.92</v>
+        <v>2249.819</v>
       </c>
       <c r="I41">
-        <v>342.41199999999998</v>
+        <v>145.268</v>
       </c>
       <c r="J41">
-        <v>1517.982</v>
+        <v>7.944</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>776.07500000000005</v>
+        <v>478.84</v>
       </c>
       <c r="O41">
-        <v>2580.9270000000001</v>
+        <v>563.14099999999996</v>
       </c>
       <c r="P41">
-        <v>1593.73</v>
+        <v>109.08</v>
       </c>
       <c r="Q41">
-        <v>564.47799999999995</v>
+        <v>-35.039000000000001</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2918.9929999999999</v>
+        <v>1686.6780000000001</v>
       </c>
       <c r="U41">
-        <v>2539.7310000000002</v>
+        <v>1053.1659999999999</v>
       </c>
       <c r="V41">
-        <v>208.67099999999999</v>
+        <v>-19.292999999999999</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>360.1</v>
+        <v>-164.6</v>
       </c>
       <c r="Y41">
-        <v>75.748000000000005</v>
+        <v>1.895</v>
       </c>
       <c r="Z41">
-        <v>-0.39700000000000002</v>
+        <v>150</v>
       </c>
       <c r="AA41">
-        <v>256.46600000000001</v>
+        <v>43.944000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>58.698</v>
+      </c>
+      <c r="D42">
+        <v>814.13499999999999</v>
+      </c>
+      <c r="E42">
+        <v>6.9480000000000004</v>
+      </c>
+      <c r="F42">
+        <v>153.74799999999999</v>
+      </c>
+      <c r="G42">
+        <v>1832.357</v>
+      </c>
+      <c r="H42">
+        <v>2260.0610000000001</v>
+      </c>
+      <c r="I42">
+        <v>115.578</v>
+      </c>
+      <c r="J42">
+        <v>7.5919999999999996</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>447.93900000000002</v>
+      </c>
+      <c r="O42">
+        <v>519.68700000000001</v>
+      </c>
+      <c r="P42">
+        <v>99.680999999999997</v>
+      </c>
+      <c r="Q42">
+        <v>137.90700000000001</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>2822</v>
+      </c>
+      <c r="T42">
+        <v>1740.374</v>
+      </c>
+      <c r="U42">
+        <v>1190.731</v>
+      </c>
+      <c r="V42">
+        <v>140.98699999999999</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-26.786999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="Z42">
+        <v>26.193000000000001</v>
+      </c>
+      <c r="AA42">
+        <v>58.698</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>15.173999999999999</v>
+      </c>
+      <c r="D43">
+        <v>517.077</v>
+      </c>
+      <c r="E43">
+        <v>7.3780000000000001</v>
+      </c>
+      <c r="F43">
+        <v>92.245000000000005</v>
+      </c>
+      <c r="G43">
+        <v>1826.422</v>
+      </c>
+      <c r="H43">
+        <v>2275.7280000000001</v>
+      </c>
+      <c r="I43">
+        <v>115.977</v>
+      </c>
+      <c r="J43">
+        <v>7.5869999999999997</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-16.297000000000001</v>
+      </c>
+      <c r="N43">
+        <v>384.33699999999999</v>
+      </c>
+      <c r="O43">
+        <v>457.52699999999999</v>
+      </c>
+      <c r="P43">
+        <v>84.647999999999996</v>
+      </c>
+      <c r="Q43">
+        <v>26.545000000000002</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1818.201</v>
+      </c>
+      <c r="U43">
+        <v>1217.67</v>
+      </c>
+      <c r="V43">
+        <v>-9.0329999999999995</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>32.04</v>
+      </c>
+      <c r="Y43">
+        <v>1.714</v>
+      </c>
+      <c r="Z43">
+        <v>4.38</v>
+      </c>
+      <c r="AA43">
+        <v>15.173999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>38.445</v>
+      </c>
+      <c r="D44">
+        <v>698.32799999999997</v>
+      </c>
+      <c r="E44">
+        <v>7.8710000000000004</v>
+      </c>
+      <c r="F44">
+        <v>131.68600000000001</v>
+      </c>
+      <c r="G44">
+        <v>1655.3330000000001</v>
+      </c>
+      <c r="H44">
+        <v>2175.6750000000002</v>
+      </c>
+      <c r="I44">
+        <v>148.65799999999999</v>
+      </c>
+      <c r="J44">
+        <v>6.5350000000000001</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>447.81299999999999</v>
+      </c>
+      <c r="O44">
+        <v>524.87900000000002</v>
+      </c>
+      <c r="P44">
+        <v>97.88</v>
+      </c>
+      <c r="Q44">
+        <v>-289.899</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1650.796</v>
+      </c>
+      <c r="U44">
+        <v>927.37</v>
+      </c>
+      <c r="V44">
+        <v>-16.190000000000001</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-208.74299999999999</v>
+      </c>
+      <c r="Y44">
+        <v>1.696</v>
+      </c>
+      <c r="Z44">
+        <v>-58.637</v>
+      </c>
+      <c r="AA44">
+        <v>38.445</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>43.408999999999999</v>
+      </c>
+      <c r="D45">
+        <v>709.90700000000004</v>
+      </c>
+      <c r="E45">
+        <v>7.2809999999999997</v>
+      </c>
+      <c r="F45">
+        <v>129.697</v>
+      </c>
+      <c r="G45">
+        <v>1279.171</v>
+      </c>
+      <c r="H45">
+        <v>1799.616</v>
+      </c>
+      <c r="I45">
+        <v>146.83699999999999</v>
+      </c>
+      <c r="J45">
+        <v>5.6849999999999996</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>378.55399999999997</v>
+      </c>
+      <c r="O45">
+        <v>453.59699999999998</v>
+      </c>
+      <c r="P45">
+        <v>7.351</v>
+      </c>
+      <c r="Q45">
+        <v>-433.274</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1346.019</v>
+      </c>
+      <c r="U45">
+        <v>492.33100000000002</v>
+      </c>
+      <c r="V45">
+        <v>20.641999999999999</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-454.976</v>
+      </c>
+      <c r="Y45">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="Z45">
+        <v>2.1619999999999999</v>
+      </c>
+      <c r="AA45">
+        <v>43.408999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>32.392000000000003</v>
+      </c>
+      <c r="D46">
+        <v>743.84</v>
+      </c>
+      <c r="E46">
+        <v>6.7889999999999997</v>
+      </c>
+      <c r="F46">
+        <v>130.47200000000001</v>
+      </c>
+      <c r="G46">
+        <v>1293.115</v>
+      </c>
+      <c r="H46">
+        <v>1779.4849999999999</v>
+      </c>
+      <c r="I46">
+        <v>125.649</v>
+      </c>
+      <c r="J46">
+        <v>4.9829999999999997</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>323.00400000000002</v>
+      </c>
+      <c r="O46">
+        <v>404.68599999999998</v>
+      </c>
+      <c r="P46">
+        <v>6.5960000000000001</v>
+      </c>
+      <c r="Q46">
+        <v>-16.327999999999999</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>2765</v>
+      </c>
+      <c r="T46">
+        <v>1374.799</v>
+      </c>
+      <c r="U46">
+        <v>475.56599999999997</v>
+      </c>
+      <c r="V46">
+        <v>6.0439999999999996</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-20.873999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>1.613</v>
+      </c>
+      <c r="Z46">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="AA46">
+        <v>32.392000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>20.123000000000001</v>
+      </c>
+      <c r="D47">
+        <v>603.06500000000005</v>
+      </c>
+      <c r="E47">
+        <v>6.0279999999999996</v>
+      </c>
+      <c r="F47">
+        <v>103.25</v>
+      </c>
+      <c r="G47">
+        <v>1330.797</v>
+      </c>
+      <c r="H47">
+        <v>1850.912</v>
+      </c>
+      <c r="I47">
+        <v>137.066</v>
+      </c>
+      <c r="J47">
+        <v>2.3479999999999999</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-3.2669999999999999</v>
+      </c>
+      <c r="N47">
+        <v>349.82100000000003</v>
+      </c>
+      <c r="O47">
+        <v>432.67099999999999</v>
+      </c>
+      <c r="P47">
+        <v>2.3479999999999999</v>
+      </c>
+      <c r="Q47">
+        <v>94.364999999999995</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1418.241</v>
+      </c>
+      <c r="U47">
+        <v>567.92200000000003</v>
+      </c>
+      <c r="V47">
+        <v>90.837999999999994</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>3.8180000000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="AA47">
+        <v>20.123000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>46.838000000000001</v>
+      </c>
+      <c r="D48">
+        <v>771.13599999999997</v>
+      </c>
+      <c r="E48">
+        <v>9.6120000000000001</v>
+      </c>
+      <c r="F48">
+        <v>137.821</v>
+      </c>
+      <c r="G48">
+        <v>1454.614</v>
+      </c>
+      <c r="H48">
+        <v>1990.96</v>
+      </c>
+      <c r="I48">
+        <v>158.358</v>
+      </c>
+      <c r="J48">
+        <v>1.05</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>376.08800000000002</v>
+      </c>
+      <c r="O48">
+        <v>469.13600000000002</v>
+      </c>
+      <c r="P48">
+        <v>1.05</v>
+      </c>
+      <c r="Q48">
+        <v>18.103999999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1521.8240000000001</v>
+      </c>
+      <c r="U48">
+        <v>587.64599999999996</v>
+      </c>
+      <c r="V48">
+        <v>-18.446999999999999</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>38.575000000000003</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="AA48">
+        <v>46.838000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>53</v>
+      </c>
+      <c r="D49">
+        <v>872.26099999999997</v>
+      </c>
+      <c r="E49">
+        <v>9.9730000000000008</v>
+      </c>
+      <c r="F49">
+        <v>162.03700000000001</v>
+      </c>
+      <c r="G49">
+        <v>1918.0719999999999</v>
+      </c>
+      <c r="H49">
+        <v>2480.7260000000001</v>
+      </c>
+      <c r="I49">
+        <v>156.614</v>
+      </c>
+      <c r="J49">
+        <v>599.83199999999999</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>399.19</v>
+      </c>
+      <c r="O49">
+        <v>1101.4179999999999</v>
+      </c>
+      <c r="P49">
+        <v>599.83199999999999</v>
+      </c>
+      <c r="Q49">
+        <v>485.28500000000003</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1379.308</v>
+      </c>
+      <c r="U49">
+        <v>1071.999</v>
+      </c>
+      <c r="V49">
+        <v>106.059</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>382.17899999999997</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>1.325</v>
+      </c>
+      <c r="AA49">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>60.627000000000002</v>
+      </c>
+      <c r="D50">
+        <v>946.178</v>
+      </c>
+      <c r="E50">
+        <v>9.4209999999999994</v>
+      </c>
+      <c r="F50">
+        <v>178.13300000000001</v>
+      </c>
+      <c r="G50">
+        <v>2050.8319999999999</v>
+      </c>
+      <c r="H50">
+        <v>2604.8420000000001</v>
+      </c>
+      <c r="I50">
+        <v>163.446</v>
+      </c>
+      <c r="J50">
+        <v>603.56200000000001</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>411.62900000000002</v>
+      </c>
+      <c r="O50">
+        <v>1124.365</v>
+      </c>
+      <c r="P50">
+        <v>604.31899999999996</v>
+      </c>
+      <c r="Q50">
+        <v>74.959000000000003</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>3291</v>
+      </c>
+      <c r="T50">
+        <v>1480.4770000000001</v>
+      </c>
+      <c r="U50">
+        <v>1139.1030000000001</v>
+      </c>
+      <c r="V50">
+        <v>85.933999999999997</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>6.3680000000000003</v>
+      </c>
+      <c r="Y50">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="Z50">
+        <v>-1.054</v>
+      </c>
+      <c r="AA50">
+        <v>60.627000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>35.040999999999997</v>
+      </c>
+      <c r="D51">
+        <v>772.23699999999997</v>
+      </c>
+      <c r="E51">
+        <v>14.536</v>
+      </c>
+      <c r="F51">
+        <v>138.97</v>
+      </c>
+      <c r="G51">
+        <v>2072.3609999999999</v>
+      </c>
+      <c r="H51">
+        <v>2665.0549999999998</v>
+      </c>
+      <c r="I51">
+        <v>170.12899999999999</v>
+      </c>
+      <c r="J51">
+        <v>601.54899999999998</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-2.1880000000000002</v>
+      </c>
+      <c r="N51">
+        <v>384.37700000000001</v>
+      </c>
+      <c r="O51">
+        <v>1112.963</v>
+      </c>
+      <c r="P51">
+        <v>601.54899999999998</v>
+      </c>
+      <c r="Q51">
+        <v>-65.775999999999996</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1552.0920000000001</v>
+      </c>
+      <c r="U51">
+        <v>1082.7919999999999</v>
+      </c>
+      <c r="V51">
+        <v>-78.093000000000004</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>26.323</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-10.667</v>
+      </c>
+      <c r="AA51">
+        <v>35.040999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>50.69</v>
+      </c>
+      <c r="D52">
+        <v>1012.037</v>
+      </c>
+      <c r="E52">
+        <v>14.821999999999999</v>
+      </c>
+      <c r="F52">
+        <v>167.53800000000001</v>
+      </c>
+      <c r="G52">
+        <v>1921.462</v>
+      </c>
+      <c r="H52">
+        <v>2531.1669999999999</v>
+      </c>
+      <c r="I52">
+        <v>196.62799999999999</v>
+      </c>
+      <c r="J52">
+        <v>600.63499999999999</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>470.18799999999999</v>
+      </c>
+      <c r="O52">
+        <v>1210.8879999999999</v>
+      </c>
+      <c r="P52">
+        <v>600.63499999999999</v>
+      </c>
+      <c r="Q52">
+        <v>-309.30700000000002</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1320.279</v>
+      </c>
+      <c r="U52">
+        <v>773.28899999999999</v>
+      </c>
+      <c r="V52">
+        <v>-12.420999999999999</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-294.185</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="AA52">
+        <v>50.69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>82.935000000000002</v>
+      </c>
+      <c r="D53">
+        <v>1191.393</v>
+      </c>
+      <c r="E53">
+        <v>13.137</v>
+      </c>
+      <c r="F53">
+        <v>216.012</v>
+      </c>
+      <c r="G53">
+        <v>1900.203</v>
+      </c>
+      <c r="H53">
+        <v>2518.8969999999999</v>
+      </c>
+      <c r="I53">
+        <v>221.34299999999999</v>
+      </c>
+      <c r="J53">
+        <v>599.61199999999997</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>519.48800000000006</v>
+      </c>
+      <c r="O53">
+        <v>1243.8030000000001</v>
+      </c>
+      <c r="P53">
+        <v>599.61199999999997</v>
+      </c>
+      <c r="Q53">
+        <v>35.773000000000003</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1275.0940000000001</v>
+      </c>
+      <c r="U53">
+        <v>804.62900000000002</v>
+      </c>
+      <c r="V53">
+        <v>178.679</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-141.06</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>4.0110000000000001</v>
+      </c>
+      <c r="AA53">
+        <v>82.935000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>97.811000000000007</v>
+      </c>
+      <c r="D54">
+        <v>1244.5450000000001</v>
+      </c>
+      <c r="E54">
+        <v>9.5289999999999999</v>
+      </c>
+      <c r="F54">
+        <v>247.04499999999999</v>
+      </c>
+      <c r="G54">
+        <v>1847.7429999999999</v>
+      </c>
+      <c r="H54">
+        <v>2486.1480000000001</v>
+      </c>
+      <c r="I54">
+        <v>181.68700000000001</v>
+      </c>
+      <c r="J54">
+        <v>602.44000000000005</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>511.37299999999999</v>
+      </c>
+      <c r="O54">
+        <v>1224.796</v>
+      </c>
+      <c r="P54">
+        <v>602.55499999999995</v>
+      </c>
+      <c r="Q54">
+        <v>52.055999999999997</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>3944</v>
+      </c>
+      <c r="T54">
+        <v>1261.3520000000001</v>
+      </c>
+      <c r="U54">
+        <v>844.274</v>
+      </c>
+      <c r="V54">
+        <v>182.05699999999999</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-114.077</v>
+      </c>
+      <c r="Y54">
+        <v>0.115</v>
+      </c>
+      <c r="Z54">
+        <v>-11.202999999999999</v>
+      </c>
+      <c r="AA54">
+        <v>97.811000000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>23.849</v>
+      </c>
+      <c r="D55">
+        <v>813.49099999999999</v>
+      </c>
+      <c r="E55">
+        <v>10.055</v>
+      </c>
+      <c r="F55">
+        <v>146.023</v>
+      </c>
+      <c r="G55">
+        <v>1855.4929999999999</v>
+      </c>
+      <c r="H55">
+        <v>2524.7530000000002</v>
+      </c>
+      <c r="I55">
+        <v>186.459</v>
+      </c>
+      <c r="J55">
+        <v>601.25099999999998</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-1.327</v>
+      </c>
+      <c r="N55">
+        <v>476.63</v>
+      </c>
+      <c r="O55">
+        <v>1198.671</v>
+      </c>
+      <c r="P55">
+        <v>601.25099999999998</v>
+      </c>
+      <c r="Q55">
+        <v>13.07</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1326.0820000000001</v>
+      </c>
+      <c r="U55">
+        <v>874.06200000000001</v>
+      </c>
+      <c r="V55">
+        <v>-15.786</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>28.850999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>5.2960000000000003</v>
+      </c>
+      <c r="AA55">
+        <v>23.849</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>68.177999999999997</v>
+      </c>
+      <c r="D56">
+        <v>1103.3309999999999</v>
+      </c>
+      <c r="E56">
+        <v>15.196</v>
+      </c>
+      <c r="F56">
+        <v>208</v>
+      </c>
+      <c r="G56">
+        <v>1694.4760000000001</v>
+      </c>
+      <c r="H56">
+        <v>2382.0630000000001</v>
+      </c>
+      <c r="I56">
+        <v>231.63300000000001</v>
+      </c>
+      <c r="J56">
+        <v>600.37800000000004</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>551.87300000000005</v>
+      </c>
+      <c r="O56">
+        <v>1282.848</v>
+      </c>
+      <c r="P56">
+        <v>600.37800000000004</v>
+      </c>
+      <c r="Q56">
+        <v>-325.61799999999999</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1099.2149999999999</v>
+      </c>
+      <c r="U56">
+        <v>538.94000000000005</v>
+      </c>
+      <c r="V56">
+        <v>-1.294</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-312.15899999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>2.9860000000000002</v>
+      </c>
+      <c r="AA56">
+        <v>68.177999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>90.152000000000001</v>
+      </c>
+      <c r="D57">
+        <v>1205.444</v>
+      </c>
+      <c r="E57">
+        <v>11.465</v>
+      </c>
+      <c r="F57">
+        <v>233.29</v>
+      </c>
+      <c r="G57">
+        <v>1689.954</v>
+      </c>
+      <c r="H57">
+        <v>2413.076</v>
+      </c>
+      <c r="I57">
+        <v>227.93600000000001</v>
+      </c>
+      <c r="J57">
+        <v>599.80399999999997</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>540.13499999999999</v>
+      </c>
+      <c r="O57">
+        <v>1261.682</v>
+      </c>
+      <c r="P57">
+        <v>599.80399999999997</v>
+      </c>
+      <c r="Q57">
+        <v>-87.412000000000006</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1151.394</v>
+      </c>
+      <c r="U57">
+        <v>455.387</v>
+      </c>
+      <c r="V57">
+        <v>-24.780999999999999</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-56.802999999999997</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="AA57">
+        <v>90.152000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>99.450999999999993</v>
+      </c>
+      <c r="D58">
+        <v>1330.095</v>
+      </c>
+      <c r="E58">
+        <v>10.021000000000001</v>
+      </c>
+      <c r="F58">
+        <v>247.67500000000001</v>
+      </c>
+      <c r="G58">
+        <v>1656.162</v>
+      </c>
+      <c r="H58">
+        <v>2351.335</v>
+      </c>
+      <c r="I58">
+        <v>204.62200000000001</v>
+      </c>
+      <c r="J58">
+        <v>599.23</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>509.47699999999998</v>
+      </c>
+      <c r="O58">
+        <v>1227.08</v>
+      </c>
+      <c r="P58">
+        <v>599.23</v>
+      </c>
+      <c r="Q58">
+        <v>79.126000000000005</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>3942</v>
+      </c>
+      <c r="T58">
+        <v>1124.2550000000001</v>
+      </c>
+      <c r="U58">
+        <v>514.78</v>
+      </c>
+      <c r="V58">
+        <v>226.41</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-146.19</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>2.859</v>
+      </c>
+      <c r="AA58">
+        <v>99.450999999999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>39.058</v>
+      </c>
+      <c r="D59">
+        <v>959.55200000000002</v>
+      </c>
+      <c r="E59">
+        <v>10.023999999999999</v>
+      </c>
+      <c r="F59">
+        <v>166.374</v>
+      </c>
+      <c r="G59">
+        <v>1654.3009999999999</v>
+      </c>
+      <c r="H59">
+        <v>2376.134</v>
+      </c>
+      <c r="I59">
+        <v>193.92699999999999</v>
+      </c>
+      <c r="J59">
+        <v>599.18899999999996</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="N59">
+        <v>484.16500000000002</v>
+      </c>
+      <c r="O59">
+        <v>1210.8969999999999</v>
+      </c>
+      <c r="P59">
+        <v>599.18899999999996</v>
+      </c>
+      <c r="Q59">
+        <v>-12.906000000000001</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1165.2370000000001</v>
+      </c>
+      <c r="U59">
+        <v>520.53200000000004</v>
+      </c>
+      <c r="V59">
+        <v>-1.603</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-11.839</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>5.2910000000000004</v>
+      </c>
+      <c r="AA59">
+        <v>39.058</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>93.394999999999996</v>
+      </c>
+      <c r="D60">
+        <v>1246.058</v>
+      </c>
+      <c r="E60">
+        <v>15.987</v>
+      </c>
+      <c r="F60">
+        <v>246.815</v>
+      </c>
+      <c r="G60">
+        <v>1868.8489999999999</v>
+      </c>
+      <c r="H60">
+        <v>2596.2350000000001</v>
+      </c>
+      <c r="I60">
+        <v>256.52100000000002</v>
+      </c>
+      <c r="J60">
+        <v>599.21299999999997</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>582.10599999999999</v>
+      </c>
+      <c r="O60">
+        <v>1321.354</v>
+      </c>
+      <c r="P60">
+        <v>599.21299999999997</v>
+      </c>
+      <c r="Q60">
+        <v>-34.927999999999997</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1274.8810000000001</v>
+      </c>
+      <c r="U60">
+        <v>476.49299999999999</v>
+      </c>
+      <c r="V60">
+        <v>-38.805999999999997</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>3.3450000000000002</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="AA60">
+        <v>93.394999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>116.47</v>
+      </c>
+      <c r="D61">
+        <v>1404.9659999999999</v>
+      </c>
+      <c r="E61">
+        <v>9.85</v>
+      </c>
+      <c r="F61">
+        <v>279.56</v>
+      </c>
+      <c r="G61">
+        <v>1827.422</v>
+      </c>
+      <c r="H61">
+        <v>2570.6819999999998</v>
+      </c>
+      <c r="I61">
+        <v>260.94099999999997</v>
+      </c>
+      <c r="J61">
+        <v>599.23699999999997</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>597.26400000000001</v>
+      </c>
+      <c r="O61">
+        <v>1330.192</v>
+      </c>
+      <c r="P61">
+        <v>599.23699999999997</v>
+      </c>
+      <c r="Q61">
+        <v>-110.123</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1240.49</v>
+      </c>
+      <c r="U61">
+        <v>375.88600000000002</v>
+      </c>
+      <c r="V61">
+        <v>55.991</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-164.43199999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>3.0630000000000002</v>
+      </c>
+      <c r="AA61">
+        <v>116.47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>134.00399999999999</v>
+      </c>
+      <c r="D62">
+        <v>1557.873</v>
+      </c>
+      <c r="E62">
+        <v>11.481999999999999</v>
+      </c>
+      <c r="F62">
+        <v>304.50799999999998</v>
+      </c>
+      <c r="G62">
+        <v>1787.365</v>
+      </c>
+      <c r="H62">
+        <v>2511.7179999999998</v>
+      </c>
+      <c r="I62">
+        <v>227.43700000000001</v>
+      </c>
+      <c r="J62">
+        <v>595.84699999999998</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>552.35</v>
+      </c>
+      <c r="O62">
+        <v>1272.5530000000001</v>
+      </c>
+      <c r="P62">
+        <v>595.84699999999998</v>
+      </c>
+      <c r="Q62">
+        <v>37.853999999999999</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>4300</v>
+      </c>
+      <c r="T62">
+        <v>1239.165</v>
+      </c>
+      <c r="U62">
+        <v>397.52199999999999</v>
+      </c>
+      <c r="V62">
+        <v>187.809</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-149.54599999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>4.1929999999999996</v>
+      </c>
+      <c r="AA62">
+        <v>134.00399999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>65.302999999999997</v>
+      </c>
+      <c r="D63">
+        <v>1146.4670000000001</v>
+      </c>
+      <c r="E63">
+        <v>13.829000000000001</v>
+      </c>
+      <c r="F63">
+        <v>206.16900000000001</v>
+      </c>
+      <c r="G63">
+        <v>1787.566</v>
+      </c>
+      <c r="H63">
+        <v>2541.6509999999998</v>
+      </c>
+      <c r="I63">
+        <v>232.221</v>
+      </c>
+      <c r="J63">
+        <v>595.99900000000002</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>561.40700000000004</v>
+      </c>
+      <c r="O63">
+        <v>1285.1880000000001</v>
+      </c>
+      <c r="P63">
+        <v>595.99900000000002</v>
+      </c>
+      <c r="Q63">
+        <v>-106.334</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1256.463</v>
+      </c>
+      <c r="U63">
+        <v>302.94499999999999</v>
+      </c>
+      <c r="V63">
+        <v>-39.993000000000002</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-64.988</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>3.879</v>
+      </c>
+      <c r="AA63">
+        <v>65.302999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>91.676000000000002</v>
+      </c>
+      <c r="D64">
+        <v>1390.373</v>
+      </c>
+      <c r="E64">
+        <v>17.463999999999999</v>
+      </c>
+      <c r="F64">
+        <v>249.31700000000001</v>
+      </c>
+      <c r="G64">
+        <v>1911.0039999999999</v>
+      </c>
+      <c r="H64">
+        <v>2698.424</v>
+      </c>
+      <c r="I64">
+        <v>272.76799999999997</v>
+      </c>
+      <c r="J64">
+        <v>596.15099999999995</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>601.97500000000002</v>
+      </c>
+      <c r="O64">
+        <v>1340.8230000000001</v>
+      </c>
+      <c r="P64">
+        <v>596.15099999999995</v>
+      </c>
+      <c r="Q64">
+        <v>45.512</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1357.6010000000001</v>
+      </c>
+      <c r="U64">
+        <v>353.17599999999999</v>
+      </c>
+      <c r="V64">
+        <v>52.564999999999998</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-3.7610000000000001</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>2.8029999999999999</v>
+      </c>
+      <c r="AA64">
+        <v>91.676000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>117.392</v>
+      </c>
+      <c r="D65">
+        <v>1540.2719999999999</v>
+      </c>
+      <c r="E65">
+        <v>13.920999999999999</v>
+      </c>
+      <c r="F65">
+        <v>283.20800000000003</v>
+      </c>
+      <c r="G65">
+        <v>1889.1790000000001</v>
+      </c>
+      <c r="H65">
+        <v>2663.2159999999999</v>
+      </c>
+      <c r="I65">
+        <v>281.52999999999997</v>
+      </c>
+      <c r="J65">
+        <v>596.303</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>622.20000000000005</v>
+      </c>
+      <c r="O65">
+        <v>1364.077</v>
+      </c>
+      <c r="P65">
+        <v>596.303</v>
+      </c>
+      <c r="Q65">
+        <v>-102.066</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1299.1389999999999</v>
+      </c>
+      <c r="U65">
+        <v>249.72800000000001</v>
+      </c>
+      <c r="V65">
+        <v>89.864999999999995</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-189.273</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>1.827</v>
+      </c>
+      <c r="AA65">
+        <v>117.392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>150.89099999999999</v>
+      </c>
+      <c r="D66">
+        <v>1755.8209999999999</v>
+      </c>
+      <c r="E66">
+        <v>18.937000000000001</v>
+      </c>
+      <c r="F66">
+        <v>326.08300000000003</v>
+      </c>
+      <c r="G66">
+        <v>1889.172</v>
+      </c>
+      <c r="H66">
+        <v>2643.9430000000002</v>
+      </c>
+      <c r="I66">
+        <v>251.21199999999999</v>
+      </c>
+      <c r="J66">
+        <v>596.45500000000004</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>608.11099999999999</v>
+      </c>
+      <c r="O66">
+        <v>1339.502</v>
+      </c>
+      <c r="P66">
+        <v>596.45500000000004</v>
+      </c>
+      <c r="Q66">
+        <v>134.191</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>4900</v>
+      </c>
+      <c r="T66">
+        <v>1304.441</v>
+      </c>
+      <c r="U66">
+        <v>376.96199999999999</v>
+      </c>
+      <c r="V66">
+        <v>295.68900000000002</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-159.37299999999999</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>3.4319999999999999</v>
+      </c>
+      <c r="AA66">
+        <v>150.89099999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>102.923</v>
+      </c>
+      <c r="D67">
+        <v>1279.855</v>
+      </c>
+      <c r="E67">
+        <v>19.876000000000001</v>
+      </c>
+      <c r="F67">
+        <v>237.643</v>
+      </c>
+      <c r="G67">
+        <v>1979.7929999999999</v>
+      </c>
+      <c r="H67">
+        <v>2742.299</v>
+      </c>
+      <c r="I67">
+        <v>237.7</v>
+      </c>
+      <c r="J67">
+        <v>596.60699999999997</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>588.17999999999995</v>
+      </c>
+      <c r="O67">
+        <v>1334.019</v>
+      </c>
+      <c r="P67">
+        <v>596.60699999999997</v>
+      </c>
+      <c r="Q67">
+        <v>94.703000000000003</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1408.28</v>
+      </c>
+      <c r="U67">
+        <v>482.68900000000002</v>
+      </c>
+      <c r="V67">
+        <v>108.262</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-10.282</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="AA67">
+        <v>102.923</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>147.87700000000001</v>
+      </c>
+      <c r="D68">
+        <v>1547.4929999999999</v>
+      </c>
+      <c r="E68">
+        <v>22.11</v>
+      </c>
+      <c r="F68">
+        <v>313.709</v>
+      </c>
+      <c r="G68">
+        <v>2179.924</v>
+      </c>
+      <c r="H68">
+        <v>2918.087</v>
+      </c>
+      <c r="I68">
+        <v>271.899</v>
+      </c>
+      <c r="J68">
+        <v>596.76</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>618.99199999999996</v>
+      </c>
+      <c r="O68">
+        <v>1382.31</v>
+      </c>
+      <c r="P68">
+        <v>596.76</v>
+      </c>
+      <c r="Q68">
+        <v>37.436</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1535.777</v>
+      </c>
+      <c r="U68">
+        <v>518.48199999999997</v>
+      </c>
+      <c r="V68">
+        <v>69.945999999999998</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-31.257999999999999</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>3.0760000000000001</v>
+      </c>
+      <c r="AA68">
+        <v>147.87700000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>162.102</v>
+      </c>
+      <c r="D69">
+        <v>1671.588</v>
+      </c>
+      <c r="E69">
+        <v>20.448</v>
+      </c>
+      <c r="F69">
+        <v>345.89100000000002</v>
+      </c>
+      <c r="G69">
+        <v>2302.8969999999999</v>
+      </c>
+      <c r="H69">
+        <v>3049.511</v>
+      </c>
+      <c r="I69">
+        <v>267.03899999999999</v>
+      </c>
+      <c r="J69">
+        <v>596.91300000000001</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>638.78399999999999</v>
+      </c>
+      <c r="O69">
+        <v>1398.835</v>
+      </c>
+      <c r="P69">
+        <v>596.91300000000001</v>
+      </c>
+      <c r="Q69">
+        <v>95.757000000000005</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1650.6759999999999</v>
+      </c>
+      <c r="U69">
+        <v>611.09400000000005</v>
+      </c>
+      <c r="V69">
+        <v>157.43799999999999</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-58.414000000000001</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>2.427</v>
+      </c>
+      <c r="AA69">
+        <v>162.102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>124.619</v>
+      </c>
+      <c r="D70">
+        <v>1821.29</v>
+      </c>
+      <c r="E70">
+        <v>20.026</v>
+      </c>
+      <c r="F70">
+        <v>364.97699999999998</v>
+      </c>
+      <c r="G70">
+        <v>2331.6640000000002</v>
+      </c>
+      <c r="H70">
+        <v>2989.279</v>
+      </c>
+      <c r="I70">
+        <v>261.97300000000001</v>
+      </c>
+      <c r="J70">
+        <v>597.06600000000003</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>622.68799999999999</v>
+      </c>
+      <c r="O70">
+        <v>1383.787</v>
+      </c>
+      <c r="P70">
+        <v>597.06600000000003</v>
+      </c>
+      <c r="Q70">
+        <v>45.624000000000002</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>5200</v>
+      </c>
+      <c r="T70">
+        <v>1605.492</v>
+      </c>
+      <c r="U70">
+        <v>646.15599999999995</v>
+      </c>
+      <c r="V70">
+        <v>234.708</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-181.68700000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-2.9809999999999999</v>
+      </c>
+      <c r="AA70">
+        <v>124.619</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>166.04900000000001</v>
+      </c>
+      <c r="D71">
+        <v>1533.4839999999999</v>
+      </c>
+      <c r="E71">
+        <v>22.373999999999999</v>
+      </c>
+      <c r="F71">
+        <v>302.55200000000002</v>
+      </c>
+      <c r="G71">
+        <v>2170.8240000000001</v>
+      </c>
+      <c r="H71">
+        <v>2846.0650000000001</v>
+      </c>
+      <c r="I71">
+        <v>265.15499999999997</v>
+      </c>
+      <c r="J71">
+        <v>597.22</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>614.55100000000004</v>
+      </c>
+      <c r="O71">
+        <v>1379.2570000000001</v>
+      </c>
+      <c r="P71">
+        <v>597.22</v>
+      </c>
+      <c r="Q71">
+        <v>-238.846</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1466.808</v>
+      </c>
+      <c r="U71">
+        <v>415.911</v>
+      </c>
+      <c r="V71">
+        <v>78.028000000000006</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-316.43799999999999</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>2.4820000000000002</v>
+      </c>
+      <c r="AA71">
+        <v>166.04900000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>203.17400000000001</v>
+      </c>
+      <c r="D72">
+        <v>1792.384</v>
+      </c>
+      <c r="E72">
+        <v>30.178999999999998</v>
+      </c>
+      <c r="F72">
+        <v>354.15</v>
+      </c>
+      <c r="G72">
+        <v>2354.9540000000002</v>
+      </c>
+      <c r="H72">
+        <v>3009.395</v>
+      </c>
+      <c r="I72">
+        <v>290.923</v>
+      </c>
+      <c r="J72">
+        <v>597.37300000000005</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>632.41800000000001</v>
+      </c>
+      <c r="O72">
+        <v>1401.8240000000001</v>
+      </c>
+      <c r="P72">
+        <v>597.37300000000005</v>
+      </c>
+      <c r="Q72">
+        <v>7.7690000000000001</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>1607.5709999999999</v>
+      </c>
+      <c r="U72">
+        <v>418.46899999999999</v>
+      </c>
+      <c r="V72">
+        <v>91.421999999999997</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-81.006</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>3.2610000000000001</v>
+      </c>
+      <c r="AA72">
+        <v>203.17400000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>195.816</v>
+      </c>
+      <c r="D73">
+        <v>1858.6089999999999</v>
+      </c>
+      <c r="E73">
+        <v>26.363</v>
+      </c>
+      <c r="F73">
+        <v>365.05</v>
+      </c>
+      <c r="G73">
+        <v>2434.7370000000001</v>
+      </c>
+      <c r="H73">
+        <v>3089.8229999999999</v>
+      </c>
+      <c r="I73">
+        <v>283.762</v>
+      </c>
+      <c r="J73">
+        <v>597.52700000000004</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>642.30399999999997</v>
+      </c>
+      <c r="O73">
+        <v>1407.5070000000001</v>
+      </c>
+      <c r="P73">
+        <v>597.52700000000004</v>
+      </c>
+      <c r="Q73">
+        <v>174.07</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1682.316</v>
+      </c>
+      <c r="U73">
+        <v>599.12400000000002</v>
+      </c>
+      <c r="V73">
+        <v>322.36500000000001</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-144.89099999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="AA73">
+        <v>195.816</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>232.15799999999999</v>
+      </c>
+      <c r="D74">
+        <v>2002.6289999999999</v>
+      </c>
+      <c r="E74">
+        <v>35.640999999999998</v>
+      </c>
+      <c r="F74">
+        <v>390.89</v>
+      </c>
+      <c r="G74">
+        <v>2492.8090000000002</v>
+      </c>
+      <c r="H74">
+        <v>3165.933</v>
+      </c>
+      <c r="I74">
+        <v>244.49600000000001</v>
+      </c>
+      <c r="J74">
+        <v>597.68100000000004</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>605.84400000000005</v>
+      </c>
+      <c r="O74">
+        <v>1357.3710000000001</v>
+      </c>
+      <c r="P74">
+        <v>597.68100000000004</v>
+      </c>
+      <c r="Q74">
+        <v>99.697999999999993</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>5600</v>
+      </c>
+      <c r="T74">
+        <v>1808.5619999999999</v>
+      </c>
+      <c r="U74">
+        <v>688.78300000000002</v>
+      </c>
+      <c r="V74">
+        <v>231.31100000000001</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-129.923</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>2.6419999999999999</v>
+      </c>
+      <c r="AA74">
+        <v>232.15799999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>188.40600000000001</v>
+      </c>
+      <c r="D75">
+        <v>1695.5809999999999</v>
+      </c>
+      <c r="E75">
+        <v>30.488</v>
+      </c>
+      <c r="F75">
+        <v>340.334</v>
+      </c>
+      <c r="G75">
+        <v>2609.5010000000002</v>
+      </c>
+      <c r="H75">
+        <v>3362.7710000000002</v>
+      </c>
+      <c r="I75">
+        <v>283.11900000000003</v>
+      </c>
+      <c r="J75">
+        <v>597.83600000000001</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>661.68</v>
+      </c>
+      <c r="O75">
+        <v>1463.9949999999999</v>
+      </c>
+      <c r="P75">
+        <v>684.57</v>
+      </c>
+      <c r="Q75">
+        <v>108.45099999999999</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>1898.7760000000001</v>
+      </c>
+      <c r="U75">
+        <v>805.495</v>
+      </c>
+      <c r="V75">
+        <v>227.85499999999999</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-117.52500000000001</v>
+      </c>
+      <c r="Y75">
+        <v>61.844999999999999</v>
+      </c>
+      <c r="Z75">
+        <v>2.9220000000000002</v>
+      </c>
+      <c r="AA75">
+        <v>188.40600000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>210.209</v>
+      </c>
+      <c r="D76">
+        <v>1808.7639999999999</v>
+      </c>
+      <c r="E76">
+        <v>28.943000000000001</v>
+      </c>
+      <c r="F76">
+        <v>362.95499999999998</v>
+      </c>
+      <c r="G76">
+        <v>2832.924</v>
+      </c>
+      <c r="H76">
+        <v>3603.24</v>
+      </c>
+      <c r="I76">
+        <v>309.41899999999998</v>
+      </c>
+      <c r="J76">
+        <v>597.99099999999999</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>664.53899999999999</v>
+      </c>
+      <c r="O76">
+        <v>1483.8009999999999</v>
+      </c>
+      <c r="P76">
+        <v>690.53800000000001</v>
+      </c>
+      <c r="Q76">
+        <v>65.709999999999994</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>2119.4389999999999</v>
+      </c>
+      <c r="U76">
+        <v>861.25</v>
+      </c>
+      <c r="V76">
+        <v>74.763999999999996</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-8.1349999999999998</v>
+      </c>
+      <c r="Y76">
+        <v>75.063999999999993</v>
+      </c>
+      <c r="Z76">
+        <v>3.91</v>
+      </c>
+      <c r="AA76">
+        <v>210.209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>223.78700000000001</v>
+      </c>
+      <c r="D77">
+        <v>1921.3</v>
+      </c>
+      <c r="E77">
+        <v>29.276</v>
+      </c>
+      <c r="F77">
+        <v>383.15100000000001</v>
+      </c>
+      <c r="G77">
+        <v>3083.5349999999999</v>
+      </c>
+      <c r="H77">
+        <v>3843.3589999999999</v>
+      </c>
+      <c r="I77">
+        <v>285.714</v>
+      </c>
+      <c r="J77">
+        <v>598.14599999999996</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>648.16099999999994</v>
+      </c>
+      <c r="O77">
+        <v>1471.902</v>
+      </c>
+      <c r="P77">
+        <v>690.07299999999998</v>
+      </c>
+      <c r="Q77">
+        <v>209.65100000000001</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>2371.4569999999999</v>
+      </c>
+      <c r="U77">
+        <v>1068.4649999999999</v>
+      </c>
+      <c r="V77">
+        <v>206.81700000000001</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>7.3570000000000002</v>
+      </c>
+      <c r="Y77">
+        <v>82.658000000000001</v>
+      </c>
+      <c r="Z77">
+        <v>1.07</v>
+      </c>
+      <c r="AA77">
+        <v>223.78700000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>256.137</v>
+      </c>
+      <c r="D78">
+        <v>1999.94</v>
+      </c>
+      <c r="E78">
+        <v>32.878</v>
+      </c>
+      <c r="F78">
+        <v>411.23700000000002</v>
+      </c>
+      <c r="G78">
+        <v>3040.73</v>
+      </c>
+      <c r="H78">
+        <v>3809.8150000000001</v>
+      </c>
+      <c r="I78">
+        <v>262.98700000000002</v>
+      </c>
+      <c r="J78">
+        <v>598.30100000000004</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>634.50699999999995</v>
+      </c>
+      <c r="O78">
+        <v>1468.5709999999999</v>
+      </c>
+      <c r="P78">
+        <v>683.678</v>
+      </c>
+      <c r="Q78">
+        <v>44.744</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>5700</v>
+      </c>
+      <c r="T78">
+        <v>2341.2440000000001</v>
+      </c>
+      <c r="U78">
+        <v>1110.8920000000001</v>
+      </c>
+      <c r="V78">
+        <v>357.09899999999999</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-306.392</v>
+      </c>
+      <c r="Y78">
+        <v>85.376999999999995</v>
+      </c>
+      <c r="Z78">
+        <v>-0.35699999999999998</v>
+      </c>
+      <c r="AA78">
+        <v>256.137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>175.703</v>
+      </c>
+      <c r="D79">
+        <v>1590.3330000000001</v>
+      </c>
+      <c r="E79">
+        <v>27.088999999999999</v>
+      </c>
+      <c r="F79">
+        <v>277.75599999999997</v>
+      </c>
+      <c r="G79">
+        <v>3130.6680000000001</v>
+      </c>
+      <c r="H79">
+        <v>3887.5230000000001</v>
+      </c>
+      <c r="I79">
+        <v>306.08699999999999</v>
+      </c>
+      <c r="J79">
+        <v>598.45600000000002</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-0.2</v>
+      </c>
+      <c r="N79">
+        <v>641.35500000000002</v>
+      </c>
+      <c r="O79">
+        <v>1470.604</v>
+      </c>
+      <c r="P79">
+        <v>682.08799999999997</v>
+      </c>
+      <c r="Q79">
+        <v>-42.536999999999999</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>2416.9189999999999</v>
+      </c>
+      <c r="U79">
+        <v>1078.8720000000001</v>
+      </c>
+      <c r="V79">
+        <v>68.441000000000003</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-107.72</v>
+      </c>
+      <c r="Y79">
+        <v>83.632000000000005</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>175.703</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>164.07499999999999</v>
+      </c>
+      <c r="D80">
+        <v>1624.63</v>
+      </c>
+      <c r="E80">
+        <v>20.800999999999998</v>
+      </c>
+      <c r="F80">
+        <v>322.59899999999999</v>
+      </c>
+      <c r="G80">
+        <v>4008.74</v>
+      </c>
+      <c r="H80">
+        <v>4730.0200000000004</v>
+      </c>
+      <c r="I80">
+        <v>294.25400000000002</v>
+      </c>
+      <c r="J80">
+        <v>1193.962</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>685.86699999999996</v>
+      </c>
+      <c r="O80">
+        <v>2117.6080000000002</v>
+      </c>
+      <c r="P80">
+        <v>1273.7249999999999</v>
+      </c>
+      <c r="Q80">
+        <v>909.73</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>2612.4119999999998</v>
+      </c>
+      <c r="U80">
+        <v>1983.162</v>
+      </c>
+      <c r="V80">
+        <v>302.22800000000001</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>612.04999999999995</v>
+      </c>
+      <c r="Y80">
+        <v>79.763000000000005</v>
+      </c>
+      <c r="Z80">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="AA80">
+        <v>164.07499999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>256.46600000000001</v>
+      </c>
+      <c r="D81">
+        <v>1994.222</v>
+      </c>
+      <c r="E81">
+        <v>21.460999999999999</v>
+      </c>
+      <c r="F81">
+        <v>433.70699999999999</v>
+      </c>
+      <c r="G81">
+        <v>4753.8909999999996</v>
+      </c>
+      <c r="H81">
+        <v>5499.92</v>
+      </c>
+      <c r="I81">
+        <v>342.41199999999998</v>
+      </c>
+      <c r="J81">
+        <v>1517.982</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>776.07500000000005</v>
+      </c>
+      <c r="O81">
+        <v>2580.9270000000001</v>
+      </c>
+      <c r="P81">
+        <v>1593.73</v>
+      </c>
+      <c r="Q81">
+        <v>564.47799999999995</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>2918.9929999999999</v>
+      </c>
+      <c r="U81">
+        <v>2539.7310000000002</v>
+      </c>
+      <c r="V81">
+        <v>208.67099999999999</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>360.1</v>
+      </c>
+      <c r="Y81">
+        <v>75.748000000000005</v>
+      </c>
+      <c r="Z81">
+        <v>-0.39700000000000002</v>
+      </c>
+      <c r="AA81">
+        <v>256.46600000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>305.00400000000002</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2353.6060000000002</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>40.798999999999999</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>503.637</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>5020.18</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>5777.1409999999996</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>339.86700000000002</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>1517.395</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>808.32899999999995</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>2674.067</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>1606.2239999999999</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>217.30699999999999</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>6100</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>3103.0740000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>2714.72</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>345.92899999999997</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-136.78800000000001</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>87.084999999999994</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>11.625</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>305.00400000000002</v>
       </c>
     </row>
